--- a/output/ca_closure_summary.xlsx
+++ b/output/ca_closure_summary.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV141"/>
+  <dimension ref="A1:AV139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19975,12 +19975,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>MOREY AVENUE EARLY CHILDHOOD DEVELOPMENT</t>
+          <t>HARMON JOHNSON ELEMENTARY</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>34765056032965</t>
+          <t>34765056033393</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -19990,7 +19990,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>09783</t>
+          <t>04152</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -20000,12 +20000,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>155 Morey Avenue</t>
+          <t>577 Las Palmas Avenue</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>155 Morey Ave.</t>
+          <t>577 Las Palmas Ave.</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -20015,7 +20015,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>95838-3219</t>
+          <t>95815-2040</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -20025,12 +20025,12 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>155 Morey Avenue</t>
+          <t>577 Las Palmas Avenue</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>155 Morey Ave.</t>
+          <t>577 Las Palmas Ave.</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -20040,7 +20040,7 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>95838-3219</t>
+          <t>95815-2040</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -20074,7 +20074,7 @@
         </is>
       </c>
       <c r="X84" s="2">
-        <v>33120</v>
+        <v>29403</v>
       </c>
       <c r="Y84" s="2">
         <v>44012</v>
@@ -20136,12 +20136,12 @@
       </c>
       <c r="AK84" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="AL84" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="AM84" t="inlineStr">
@@ -20166,12 +20166,12 @@
       </c>
       <c r="AQ84" t="inlineStr">
         <is>
-          <t>38.634844</t>
+          <t>38.618953</t>
         </is>
       </c>
       <c r="AR84" t="inlineStr">
         <is>
-          <t>-121.46514</t>
+          <t>-121.45290</t>
         </is>
       </c>
       <c r="AS84" t="inlineStr">
@@ -20191,42 +20191,42 @@
       </c>
       <c r="AV84" t="inlineStr">
         <is>
-          <t>44098</t>
+          <t>44058</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Sacramento</t>
+          <t>San Benito</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Twin Rivers Unified</t>
+          <t>Hollister</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HARMON JOHNSON ELEMENTARY</t>
+          <t>GABILAN HILLS</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>34765056033393</t>
+          <t>35674706114557</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0601332</t>
+          <t>0617340</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>04152</t>
+          <t>07252</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -20236,22 +20236,22 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>577 Las Palmas Avenue</t>
+          <t>901 Santa Ana Road</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>577 Las Palmas Ave.</t>
+          <t>901 Santa Ana Rd.</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Sacramento</t>
+          <t>Hollister</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>95815-2040</t>
+          <t>95023-7117</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -20261,22 +20261,22 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>577 Las Palmas Avenue</t>
+          <t>901 Santa Ana Road</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>577 Las Palmas Ave.</t>
+          <t>901 Santa Ana Rd.</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Sacramento</t>
+          <t>Hollister</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>95815-2040</t>
+          <t>95023-7117</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -20301,7 +20301,7 @@
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>mruiz@hesd.org</t>
         </is>
       </c>
       <c r="W85" t="inlineStr">
@@ -20310,10 +20310,10 @@
         </is>
       </c>
       <c r="X85" s="2">
-        <v>29403</v>
+        <v>35670</v>
       </c>
       <c r="Y85" s="2">
-        <v>44012</v>
+        <v>44377</v>
       </c>
       <c r="Z85" t="inlineStr">
         <is>
@@ -20332,12 +20332,12 @@
       </c>
       <c r="AC85" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="AD85" t="inlineStr">
         <is>
-          <t>Unified School District</t>
+          <t>Elementary School District</t>
         </is>
       </c>
       <c r="AE85" t="inlineStr">
@@ -20372,12 +20372,12 @@
       </c>
       <c r="AK85" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>K-5</t>
         </is>
       </c>
       <c r="AL85" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>K-5</t>
         </is>
       </c>
       <c r="AM85" t="inlineStr">
@@ -20402,12 +20402,12 @@
       </c>
       <c r="AQ85" t="inlineStr">
         <is>
-          <t>38.618953</t>
+          <t>36.855915</t>
         </is>
       </c>
       <c r="AR85" t="inlineStr">
         <is>
-          <t>-121.45290</t>
+          <t>-121.38471</t>
         </is>
       </c>
       <c r="AS85" t="inlineStr">
@@ -20427,7 +20427,7 @@
       </c>
       <c r="AV85" t="inlineStr">
         <is>
-          <t>44058</t>
+          <t>44439</t>
         </is>
       </c>
     </row>
@@ -20437,32 +20437,32 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>San Benito</t>
+          <t>San Bernardino</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Hollister</t>
+          <t>Bear Valley Unified</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>GABILAN HILLS</t>
+          <t>BIG BEAR ELEMENTARY</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>35674706114557</t>
+          <t>36676376105936</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0617340</t>
+          <t>0604230</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>07252</t>
+          <t>08796</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -20472,22 +20472,22 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>901 Santa Ana Road</t>
+          <t>40940 Pennsylvania</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>901 Santa Ana Rd.</t>
+          <t>40940 Pennsylvania</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Hollister</t>
+          <t>Big Bear Lake</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>95023-7117</t>
+          <t>92315-1627</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -20497,22 +20497,22 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>901 Santa Ana Road</t>
+          <t>PO Box 1627</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>901 Santa Ana Rd.</t>
+          <t>PO Box 1627</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Hollister</t>
+          <t>Big Bear Lake</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>95023-7117</t>
+          <t>92315-1627</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
@@ -20537,16 +20537,16 @@
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>mruiz@hesd.org</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="W86" t="inlineStr">
         <is>
-          <t>Information Not Available</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="X86" s="2">
-        <v>35670</v>
+        <v>29403</v>
       </c>
       <c r="Y86" s="2">
         <v>44377</v>
@@ -20568,12 +20568,12 @@
       </c>
       <c r="AC86" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>54</t>
         </is>
       </c>
       <c r="AD86" t="inlineStr">
         <is>
-          <t>Elementary School District</t>
+          <t>Unified School District</t>
         </is>
       </c>
       <c r="AE86" t="inlineStr">
@@ -20618,7 +20618,7 @@
       </c>
       <c r="AM86" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>C</t>
         </is>
       </c>
       <c r="AN86" t="inlineStr">
@@ -20638,12 +20638,12 @@
       </c>
       <c r="AQ86" t="inlineStr">
         <is>
-          <t>36.855915</t>
+          <t>34.239926</t>
         </is>
       </c>
       <c r="AR86" t="inlineStr">
         <is>
-          <t>-121.38471</t>
+          <t>-116.90865</t>
         </is>
       </c>
       <c r="AS86" t="inlineStr">
@@ -20663,42 +20663,42 @@
       </c>
       <c r="AV86" t="inlineStr">
         <is>
-          <t>44439</t>
+          <t>44406</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>San Bernardino</t>
+          <t>San Diego</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Bear Valley Unified</t>
+          <t>Alpine Union Elementary</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>BIG BEAR ELEMENTARY</t>
+          <t>ALPINE ELEMENTARY</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>36676376105936</t>
+          <t>37679676037519</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0604230</t>
+          <t>0602100</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>08796</t>
+          <t>00091</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -20708,22 +20708,22 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>40940 Pennsylvania</t>
+          <t>1850 Alpine Boulevard</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>40940 Pennsylvania</t>
+          <t>1850 Alpine Blvd.</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Big Bear Lake</t>
+          <t>Alpine</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>92315-1627</t>
+          <t>91901-3898</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
@@ -20733,22 +20733,22 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>PO Box 1627</t>
+          <t>1850 Alpine Boulevard</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>PO Box 1627</t>
+          <t>1850 Alpine Blvd.</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Big Bear Lake</t>
+          <t>Alpine</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>92315-1627</t>
+          <t>91901-3898</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
@@ -20778,14 +20778,14 @@
       </c>
       <c r="W87" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>Information Not Available</t>
         </is>
       </c>
       <c r="X87" s="2">
         <v>29403</v>
       </c>
       <c r="Y87" s="2">
-        <v>44377</v>
+        <v>43641</v>
       </c>
       <c r="Z87" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="AC87" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="AD87" t="inlineStr">
         <is>
-          <t>Unified School District</t>
+          <t>Elementary School District</t>
         </is>
       </c>
       <c r="AE87" t="inlineStr">
@@ -20844,17 +20844,17 @@
       </c>
       <c r="AK87" t="inlineStr">
         <is>
-          <t>K-5</t>
+          <t>1-5</t>
         </is>
       </c>
       <c r="AL87" t="inlineStr">
         <is>
-          <t>K-5</t>
+          <t>1-5</t>
         </is>
       </c>
       <c r="AM87" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AN87" t="inlineStr">
@@ -20874,12 +20874,12 @@
       </c>
       <c r="AQ87" t="inlineStr">
         <is>
-          <t>34.239926</t>
+          <t>32.837485</t>
         </is>
       </c>
       <c r="AR87" t="inlineStr">
         <is>
-          <t>-116.90865</t>
+          <t>-116.77454</t>
         </is>
       </c>
       <c r="AS87" t="inlineStr">
@@ -20899,13 +20899,13 @@
       </c>
       <c r="AV87" t="inlineStr">
         <is>
-          <t>44406</t>
+          <t>43642</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -20914,27 +20914,27 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Alpine Union Elementary</t>
+          <t>Cajon Valley Union</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>ALPINE ELEMENTARY</t>
+          <t>EMERALD MIDDLE</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>37679676037519</t>
+          <t>37679916037626</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0602100</t>
+          <t>0606810</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>00091</t>
+          <t>00612</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -20944,22 +20944,22 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>1850 Alpine Boulevard</t>
+          <t>1221 South Emerald Avenue</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>1850 Alpine Blvd.</t>
+          <t>1221 South Emerald Ave.</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Alpine</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>91901-3898</t>
+          <t>92020-7315</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
@@ -20969,22 +20969,22 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>1850 Alpine Boulevard</t>
+          <t>1221 South Emerald Avenue</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>1850 Alpine Blvd.</t>
+          <t>1221 South Emerald Ave.</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Alpine</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>91901-3898</t>
+          <t>92020-7315</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
@@ -21014,14 +21014,14 @@
       </c>
       <c r="W88" t="inlineStr">
         <is>
-          <t>Information Not Available</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="X88" s="2">
         <v>29403</v>
       </c>
       <c r="Y88" s="2">
-        <v>43641</v>
+        <v>44742</v>
       </c>
       <c r="Z88" t="inlineStr">
         <is>
@@ -21050,12 +21050,12 @@
       </c>
       <c r="AE88" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AF88" t="inlineStr">
         <is>
-          <t>Elementary Schools (Public)</t>
+          <t>Intermediate/Middle Schools (Public)</t>
         </is>
       </c>
       <c r="AG88" t="inlineStr">
@@ -21070,22 +21070,22 @@
       </c>
       <c r="AI88" t="inlineStr">
         <is>
-          <t>ELEM</t>
+          <t>INTMIDJR</t>
         </is>
       </c>
       <c r="AJ88" t="inlineStr">
         <is>
-          <t>Elementary</t>
+          <t>Intermediate/Middle/Junior High</t>
         </is>
       </c>
       <c r="AK88" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="AL88" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="AM88" t="inlineStr">
@@ -21110,12 +21110,12 @@
       </c>
       <c r="AQ88" t="inlineStr">
         <is>
-          <t>32.837485</t>
+          <t>32.778996</t>
         </is>
       </c>
       <c r="AR88" t="inlineStr">
         <is>
-          <t>-116.77454</t>
+          <t>-116.96869</t>
         </is>
       </c>
       <c r="AS88" t="inlineStr">
@@ -21135,13 +21135,13 @@
       </c>
       <c r="AV88" t="inlineStr">
         <is>
-          <t>43642</t>
+          <t>44790</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -21150,27 +21150,27 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Cajon Valley Union</t>
+          <t>Jamul-Dulzura Union Elementary</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>EMERALD MIDDLE</t>
+          <t>JAMUL INTERMEDIATE</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>37679916037626</t>
+          <t>37681556112205</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0606810</t>
+          <t>0618730</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>00612</t>
+          <t>03937</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -21180,22 +21180,22 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>1221 South Emerald Avenue</t>
+          <t>14545 Lyons Valley Road</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>1221 South Emerald Ave.</t>
+          <t>14545 Lyons Valley Rd.</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>Jamul</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>92020-7315</t>
+          <t>91935-3324</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
@@ -21205,22 +21205,22 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>1221 South Emerald Avenue</t>
+          <t>14545 Lyons Valley Road</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>1221 South Emerald Ave.</t>
+          <t>14545 Lyons Valley Rd.</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>Jamul</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>92020-7315</t>
+          <t>91935-3324</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
@@ -21250,14 +21250,14 @@
       </c>
       <c r="W89" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>Information Not Available</t>
         </is>
       </c>
       <c r="X89" s="2">
-        <v>29403</v>
+        <v>34584</v>
       </c>
       <c r="Y89" s="2">
-        <v>44742</v>
+        <v>43628</v>
       </c>
       <c r="Z89" t="inlineStr">
         <is>
@@ -21286,12 +21286,12 @@
       </c>
       <c r="AE89" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AF89" t="inlineStr">
         <is>
-          <t>Intermediate/Middle Schools (Public)</t>
+          <t>Elementary Schools (Public)</t>
         </is>
       </c>
       <c r="AG89" t="inlineStr">
@@ -21306,22 +21306,22 @@
       </c>
       <c r="AI89" t="inlineStr">
         <is>
-          <t>INTMIDJR</t>
+          <t>ELEM</t>
         </is>
       </c>
       <c r="AJ89" t="inlineStr">
         <is>
-          <t>Intermediate/Middle/Junior High</t>
+          <t>Elementary</t>
         </is>
       </c>
       <c r="AK89" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="AL89" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="AM89" t="inlineStr">
@@ -21346,12 +21346,12 @@
       </c>
       <c r="AQ89" t="inlineStr">
         <is>
-          <t>32.778996</t>
+          <t>32.730137</t>
         </is>
       </c>
       <c r="AR89" t="inlineStr">
         <is>
-          <t>-116.96869</t>
+          <t>-116.85456</t>
         </is>
       </c>
       <c r="AS89" t="inlineStr">
@@ -21371,13 +21371,13 @@
       </c>
       <c r="AV89" t="inlineStr">
         <is>
-          <t>44790</t>
+          <t>43664</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -21386,27 +21386,27 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Jamul-Dulzura Union Elementary</t>
+          <t>Lakeside Union Elementary</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>JAMUL INTERMEDIATE</t>
+          <t>EUCALYPTUS HILLS ELEMENTARY</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>37681556112205</t>
+          <t>37681890129288</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0618730</t>
+          <t>0620790</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>03937</t>
+          <t>13731</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -21416,22 +21416,22 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>14545 Lyons Valley Road</t>
+          <t>11838 Valle Vista Road</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>14545 Lyons Valley Rd.</t>
+          <t>11838 Valle Vista Rd.</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Jamul</t>
+          <t>Lakeside</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>91935-3324</t>
+          <t>92040-1046</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -21441,22 +21441,22 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>14545 Lyons Valley Road</t>
+          <t>11838 Valle Vista Road</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>14545 Lyons Valley Rd.</t>
+          <t>11838 Valle Vista Rd.</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Jamul</t>
+          <t>Lakeside</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>91935-3324</t>
+          <t>92040-1046</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
@@ -21481,7 +21481,7 @@
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>derosier@lsusd.net</t>
         </is>
       </c>
       <c r="W90" t="inlineStr">
@@ -21490,10 +21490,10 @@
         </is>
       </c>
       <c r="X90" s="2">
-        <v>34584</v>
+        <v>41645</v>
       </c>
       <c r="Y90" s="2">
-        <v>43628</v>
+        <v>44742</v>
       </c>
       <c r="Z90" t="inlineStr">
         <is>
@@ -21552,12 +21552,12 @@
       </c>
       <c r="AK90" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>P-K</t>
         </is>
       </c>
       <c r="AL90" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>K</t>
         </is>
       </c>
       <c r="AM90" t="inlineStr">
@@ -21582,12 +21582,12 @@
       </c>
       <c r="AQ90" t="inlineStr">
         <is>
-          <t>32.730137</t>
+          <t>32.892434</t>
         </is>
       </c>
       <c r="AR90" t="inlineStr">
         <is>
-          <t>-116.85456</t>
+          <t>-116.94779</t>
         </is>
       </c>
       <c r="AS90" t="inlineStr">
@@ -21607,13 +21607,13 @@
       </c>
       <c r="AV90" t="inlineStr">
         <is>
-          <t>43664</t>
+          <t>44781</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -21622,27 +21622,27 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Lakeside Union Elementary</t>
+          <t>La Mesa-Spring Valley</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>EUCALYPTUS HILLS ELEMENTARY</t>
+          <t>TRUST BLENDED LEARNING</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>37681890129288</t>
+          <t>37681970132951</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0620790</t>
+          <t>0620250</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>13731</t>
+          <t>13954</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -21652,22 +21652,22 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>11838 Valle Vista Road</t>
+          <t>10355 Loma Lane</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>11838 Valle Vista Rd.</t>
+          <t>10355 Loma Ln.</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Lakeside</t>
+          <t>Spring Valley</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>92040-1046</t>
+          <t>91978-1517</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -21677,22 +21677,22 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>11838 Valle Vista Road</t>
+          <t>10355 Loma Lane</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>11838 Valle Vista Rd.</t>
+          <t>10355 Loma Ln.</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>Lakeside</t>
+          <t>Spring Valley</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>92040-1046</t>
+          <t>91978-1517</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
@@ -21717,7 +21717,7 @@
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>derosier@lsusd.net</t>
+          <t>cindy.knight@lmsvschools.org</t>
         </is>
       </c>
       <c r="W91" t="inlineStr">
@@ -21726,10 +21726,10 @@
         </is>
       </c>
       <c r="X91" s="2">
-        <v>41645</v>
+        <v>42219</v>
       </c>
       <c r="Y91" s="2">
-        <v>44742</v>
+        <v>45457</v>
       </c>
       <c r="Z91" t="inlineStr">
         <is>
@@ -21788,17 +21788,17 @@
       </c>
       <c r="AK91" t="inlineStr">
         <is>
-          <t>P-K</t>
+          <t>K-8</t>
         </is>
       </c>
       <c r="AL91" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>K-8</t>
         </is>
       </c>
       <c r="AM91" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>V</t>
         </is>
       </c>
       <c r="AN91" t="inlineStr">
@@ -21818,12 +21818,12 @@
       </c>
       <c r="AQ91" t="inlineStr">
         <is>
-          <t>32.892434</t>
+          <t>32.735834</t>
         </is>
       </c>
       <c r="AR91" t="inlineStr">
         <is>
-          <t>-116.94779</t>
+          <t>-116.96797</t>
         </is>
       </c>
       <c r="AS91" t="inlineStr">
@@ -21843,13 +21843,13 @@
       </c>
       <c r="AV91" t="inlineStr">
         <is>
-          <t>44781</t>
+          <t>45489</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -21858,27 +21858,27 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>La Mesa-Spring Valley</t>
+          <t>Mountain Empire Unified</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>TRUST BLENDED LEARNING</t>
+          <t>PINE VALLEY MIDDLE</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>37681970132951</t>
+          <t>37682130127001</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>0620250</t>
+          <t>0626100</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>13954</t>
+          <t>13109</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -21888,22 +21888,22 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>10355 Loma Lane</t>
+          <t>7454 Pine Boulevard</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>10355 Loma Ln.</t>
+          <t>7454 Pine Blvd.</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Spring Valley</t>
+          <t>Pine Valley</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>91978-1517</t>
+          <t>91962</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
@@ -21913,22 +21913,22 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>10355 Loma Lane</t>
+          <t>PO Box 571</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>10355 Loma Ln.</t>
+          <t>PO Box 571</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>Spring Valley</t>
+          <t>Pine Valley</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>91978-1517</t>
+          <t>91962</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
@@ -21953,7 +21953,7 @@
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>cindy.knight@lmsvschools.org</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="W92" t="inlineStr">
@@ -21962,10 +21962,10 @@
         </is>
       </c>
       <c r="X92" s="2">
-        <v>42219</v>
+        <v>41144</v>
       </c>
       <c r="Y92" s="2">
-        <v>45457</v>
+        <v>45107</v>
       </c>
       <c r="Z92" t="inlineStr">
         <is>
@@ -21984,22 +21984,22 @@
       </c>
       <c r="AC92" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>54</t>
         </is>
       </c>
       <c r="AD92" t="inlineStr">
         <is>
-          <t>Elementary School District</t>
+          <t>Unified School District</t>
         </is>
       </c>
       <c r="AE92" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AF92" t="inlineStr">
         <is>
-          <t>Elementary Schools (Public)</t>
+          <t>Intermediate/Middle Schools (Public)</t>
         </is>
       </c>
       <c r="AG92" t="inlineStr">
@@ -22014,27 +22014,27 @@
       </c>
       <c r="AI92" t="inlineStr">
         <is>
-          <t>ELEM</t>
+          <t>INTMIDJR</t>
         </is>
       </c>
       <c r="AJ92" t="inlineStr">
         <is>
-          <t>Elementary</t>
+          <t>Intermediate/Middle/Junior High</t>
         </is>
       </c>
       <c r="AK92" t="inlineStr">
         <is>
-          <t>K-8</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="AL92" t="inlineStr">
         <is>
-          <t>K-8</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="AM92" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AN92" t="inlineStr">
@@ -22054,12 +22054,12 @@
       </c>
       <c r="AQ92" t="inlineStr">
         <is>
-          <t>32.735834</t>
+          <t>32.819591</t>
         </is>
       </c>
       <c r="AR92" t="inlineStr">
         <is>
-          <t>-116.96797</t>
+          <t>-116.52548</t>
         </is>
       </c>
       <c r="AS92" t="inlineStr">
@@ -22079,13 +22079,13 @@
       </c>
       <c r="AV92" t="inlineStr">
         <is>
-          <t>45489</t>
+          <t>45120</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -22094,27 +22094,27 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Mountain Empire Unified</t>
+          <t>San Diego Unified</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>PINE VALLEY MIDDLE</t>
+          <t>MEMORIAL SCHOLARS &amp; ATHLETES</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>37682130127001</t>
+          <t>37683380117333</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>0626100</t>
+          <t>0634320</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>13109</t>
+          <t>12239</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -22124,22 +22124,22 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>7454 Pine Boulevard</t>
+          <t>2850 Logan Avenue,</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>7454 Pine Blvd.</t>
+          <t>2850 Logan Ave.,</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Pine Valley</t>
+          <t>San Diego</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>91962</t>
+          <t>92113-2412</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
@@ -22149,22 +22149,22 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>PO Box 571</t>
+          <t>2850 Logan Avenue,</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>PO Box 571</t>
+          <t>2850 Logan Ave.,</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>Pine Valley</t>
+          <t>San Diego</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>91962</t>
+          <t>92113-2412</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
@@ -22198,10 +22198,10 @@
         </is>
       </c>
       <c r="X93" s="2">
-        <v>41144</v>
+        <v>39692</v>
       </c>
       <c r="Y93" s="2">
-        <v>45107</v>
+        <v>44012</v>
       </c>
       <c r="Z93" t="inlineStr">
         <is>
@@ -22260,12 +22260,12 @@
       </c>
       <c r="AK93" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="AL93" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="AM93" t="inlineStr">
@@ -22290,12 +22290,12 @@
       </c>
       <c r="AQ93" t="inlineStr">
         <is>
-          <t>32.819591</t>
+          <t>32.697421</t>
         </is>
       </c>
       <c r="AR93" t="inlineStr">
         <is>
-          <t>-116.52548</t>
+          <t>-117.13208</t>
         </is>
       </c>
       <c r="AS93" t="inlineStr">
@@ -22315,7 +22315,7 @@
       </c>
       <c r="AV93" t="inlineStr">
         <is>
-          <t>45120</t>
+          <t>44067</t>
         </is>
       </c>
     </row>
@@ -22335,12 +22335,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>MEMORIAL SCHOLARS &amp; ATHLETES</t>
+          <t>LOGAN K-8</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>37683380117333</t>
+          <t>37683386039895</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -22350,7 +22350,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>12239</t>
+          <t>05503</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -22360,12 +22360,12 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2850 Logan Avenue,</t>
+          <t>2875 Ocean View Boulevard</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>2850 Logan Ave.,</t>
+          <t>2875 Ocean View Blvd.</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -22375,7 +22375,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>92113-2412</t>
+          <t>92113-1399</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -22385,12 +22385,12 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>2850 Logan Avenue,</t>
+          <t>2875 Ocean View Boulevard</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2850 Logan Ave.,</t>
+          <t>2875 Ocean View Blvd.</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
@@ -22400,7 +22400,7 @@
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>92113-2412</t>
+          <t>92113-1399</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
@@ -22434,7 +22434,7 @@
         </is>
       </c>
       <c r="X94" s="2">
-        <v>39692</v>
+        <v>29403</v>
       </c>
       <c r="Y94" s="2">
         <v>44012</v>
@@ -22466,12 +22466,12 @@
       </c>
       <c r="AE94" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AF94" t="inlineStr">
         <is>
-          <t>Intermediate/Middle Schools (Public)</t>
+          <t>Elementary Schools (Public)</t>
         </is>
       </c>
       <c r="AG94" t="inlineStr">
@@ -22486,22 +22486,22 @@
       </c>
       <c r="AI94" t="inlineStr">
         <is>
-          <t>INTMIDJR</t>
+          <t>ELEM</t>
         </is>
       </c>
       <c r="AJ94" t="inlineStr">
         <is>
-          <t>Intermediate/Middle/Junior High</t>
+          <t>Elementary</t>
         </is>
       </c>
       <c r="AK94" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>K-8</t>
         </is>
       </c>
       <c r="AL94" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>K-8</t>
         </is>
       </c>
       <c r="AM94" t="inlineStr">
@@ -22516,7 +22516,7 @@
       </c>
       <c r="AO94" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AP94" t="inlineStr">
@@ -22526,12 +22526,12 @@
       </c>
       <c r="AQ94" t="inlineStr">
         <is>
-          <t>32.697421</t>
+          <t>32.701099</t>
         </is>
       </c>
       <c r="AR94" t="inlineStr">
         <is>
-          <t>-117.13208</t>
+          <t>-117.13185</t>
         </is>
       </c>
       <c r="AS94" t="inlineStr">
@@ -22557,7 +22557,7 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -22566,27 +22566,27 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>San Diego Unified</t>
+          <t>San Ysidro Elementary</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>LOGAN K-8</t>
+          <t>VISTA DEL MAR</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>37683386039895</t>
+          <t>37683790125518</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0634320</t>
+          <t>0635220</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>05503</t>
+          <t>12993</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -22596,12 +22596,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2875 Ocean View Boulevard</t>
+          <t>4885 Del Sol Boulevard</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>2875 Ocean View Blvd.</t>
+          <t>4885 Del Sol Blvd.</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -22611,7 +22611,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>92113-1399</t>
+          <t>92154-8401</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
@@ -22621,12 +22621,12 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>2875 Ocean View Boulevard</t>
+          <t>4885 Del Sol Boulevard</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2875 Ocean View Blvd.</t>
+          <t>4885 Del Sol Blvd.</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
@@ -22636,7 +22636,7 @@
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>92113-1399</t>
+          <t>92154-8401</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
@@ -22670,10 +22670,10 @@
         </is>
       </c>
       <c r="X95" s="2">
-        <v>29403</v>
+        <v>41115</v>
       </c>
       <c r="Y95" s="2">
-        <v>44012</v>
+        <v>43281</v>
       </c>
       <c r="Z95" t="inlineStr">
         <is>
@@ -22692,12 +22692,12 @@
       </c>
       <c r="AC95" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="AD95" t="inlineStr">
         <is>
-          <t>Unified School District</t>
+          <t>Elementary School District</t>
         </is>
       </c>
       <c r="AE95" t="inlineStr">
@@ -22722,22 +22722,22 @@
       </c>
       <c r="AI95" t="inlineStr">
         <is>
-          <t>ELEM</t>
+          <t>INTMIDJR</t>
         </is>
       </c>
       <c r="AJ95" t="inlineStr">
         <is>
-          <t>Elementary</t>
+          <t>Intermediate/Middle/Junior High</t>
         </is>
       </c>
       <c r="AK95" t="inlineStr">
         <is>
-          <t>K-8</t>
+          <t>K-3</t>
         </is>
       </c>
       <c r="AL95" t="inlineStr">
         <is>
-          <t>K-8</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="AM95" t="inlineStr">
@@ -22762,12 +22762,12 @@
       </c>
       <c r="AQ95" t="inlineStr">
         <is>
-          <t>32.701099</t>
+          <t>32.571733</t>
         </is>
       </c>
       <c r="AR95" t="inlineStr">
         <is>
-          <t>-117.13185</t>
+          <t>-117.03479</t>
         </is>
       </c>
       <c r="AS95" t="inlineStr">
@@ -22787,13 +22787,13 @@
       </c>
       <c r="AV95" t="inlineStr">
         <is>
-          <t>44067</t>
+          <t>43286</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -22802,27 +22802,27 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>San Ysidro Elementary</t>
+          <t>Vista Unified</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>VISTA DEL MAR</t>
+          <t>BEAUMONT ELEMENTARY</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>37683790125518</t>
+          <t>37684526040588</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0635220</t>
+          <t>0641190</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>12993</t>
+          <t>06813</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -22832,22 +22832,22 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>4885 Del Sol Boulevard</t>
+          <t>550 Beaumont Drive</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>4885 Del Sol Blvd.</t>
+          <t>550 Beaumont Dr.</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>San Diego</t>
+          <t>Vista</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>92154-8401</t>
+          <t>92084-6321</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
@@ -22857,22 +22857,22 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>4885 Del Sol Boulevard</t>
+          <t>1234 Arcadia Avenue</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>4885 Del Sol Blvd.</t>
+          <t>1234 Arcadia Ave.</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>San Diego</t>
+          <t>Vista</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>92154-8401</t>
+          <t>92084</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
@@ -22906,10 +22906,10 @@
         </is>
       </c>
       <c r="X96" s="2">
-        <v>41115</v>
+        <v>21732</v>
       </c>
       <c r="Y96" s="2">
-        <v>43281</v>
+        <v>45473</v>
       </c>
       <c r="Z96" t="inlineStr">
         <is>
@@ -22928,12 +22928,12 @@
       </c>
       <c r="AC96" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>54</t>
         </is>
       </c>
       <c r="AD96" t="inlineStr">
         <is>
-          <t>Elementary School District</t>
+          <t>Unified School District</t>
         </is>
       </c>
       <c r="AE96" t="inlineStr">
@@ -22958,22 +22958,22 @@
       </c>
       <c r="AI96" t="inlineStr">
         <is>
-          <t>INTMIDJR</t>
+          <t>ELEM</t>
         </is>
       </c>
       <c r="AJ96" t="inlineStr">
         <is>
-          <t>Intermediate/Middle/Junior High</t>
+          <t>Elementary</t>
         </is>
       </c>
       <c r="AK96" t="inlineStr">
         <is>
-          <t>K-3</t>
+          <t>K-5</t>
         </is>
       </c>
       <c r="AL96" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>K-5</t>
         </is>
       </c>
       <c r="AM96" t="inlineStr">
@@ -22988,7 +22988,7 @@
       </c>
       <c r="AO96" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AP96" t="inlineStr">
@@ -22998,12 +22998,12 @@
       </c>
       <c r="AQ96" t="inlineStr">
         <is>
-          <t>32.571733</t>
+          <t>33.198044</t>
         </is>
       </c>
       <c r="AR96" t="inlineStr">
         <is>
-          <t>-117.03479</t>
+          <t>-117.22481</t>
         </is>
       </c>
       <c r="AS96" t="inlineStr">
@@ -23023,13 +23023,13 @@
       </c>
       <c r="AV96" t="inlineStr">
         <is>
-          <t>43286</t>
+          <t>45474</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -23043,12 +23043,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>BEAUMONT ELEMENTARY</t>
+          <t>OLIVE ELEMENTARY</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>37684526040588</t>
+          <t>37684526040646</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -23058,7 +23058,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>06813</t>
+          <t>06821</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -23068,12 +23068,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>550 Beaumont Drive</t>
+          <t>836 Olive Avenue</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>550 Beaumont Dr.</t>
+          <t>836 Olive Ave.</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -23083,7 +23083,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>92084-6321</t>
+          <t>92083-3316</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
@@ -23142,10 +23142,10 @@
         </is>
       </c>
       <c r="X97" s="2">
-        <v>21732</v>
+        <v>29403</v>
       </c>
       <c r="Y97" s="2">
-        <v>45473</v>
+        <v>43281</v>
       </c>
       <c r="Z97" t="inlineStr">
         <is>
@@ -23234,12 +23234,12 @@
       </c>
       <c r="AQ97" t="inlineStr">
         <is>
-          <t>33.198044</t>
+          <t>33.204630</t>
         </is>
       </c>
       <c r="AR97" t="inlineStr">
         <is>
-          <t>-117.22481</t>
+          <t>-117.25872</t>
         </is>
       </c>
       <c r="AS97" t="inlineStr">
@@ -23259,13 +23259,13 @@
       </c>
       <c r="AV97" t="inlineStr">
         <is>
-          <t>45474</t>
+          <t>43293</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -23279,12 +23279,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>OLIVE ELEMENTARY</t>
+          <t>RANCHO MINERVA MIDDLE</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>37684526040646</t>
+          <t>37684526059802</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -23294,7 +23294,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>06821</t>
+          <t>06819</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -23304,12 +23304,12 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>836 Olive Avenue</t>
+          <t>2245 Foothill Drive</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>836 Olive Ave.</t>
+          <t>2245 Foothill Dr.</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -23319,7 +23319,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>92083-3316</t>
+          <t>92084-6035</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
@@ -23381,7 +23381,7 @@
         <v>29403</v>
       </c>
       <c r="Y98" s="2">
-        <v>43281</v>
+        <v>45473</v>
       </c>
       <c r="Z98" t="inlineStr">
         <is>
@@ -23410,12 +23410,12 @@
       </c>
       <c r="AE98" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AF98" t="inlineStr">
         <is>
-          <t>Elementary Schools (Public)</t>
+          <t>Intermediate/Middle Schools (Public)</t>
         </is>
       </c>
       <c r="AG98" t="inlineStr">
@@ -23430,22 +23430,22 @@
       </c>
       <c r="AI98" t="inlineStr">
         <is>
-          <t>ELEM</t>
+          <t>INTMIDJR</t>
         </is>
       </c>
       <c r="AJ98" t="inlineStr">
         <is>
-          <t>Elementary</t>
+          <t>Intermediate/Middle/Junior High</t>
         </is>
       </c>
       <c r="AK98" t="inlineStr">
         <is>
-          <t>K-5</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="AL98" t="inlineStr">
         <is>
-          <t>K-5</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="AM98" t="inlineStr">
@@ -23470,12 +23470,12 @@
       </c>
       <c r="AQ98" t="inlineStr">
         <is>
-          <t>33.204630</t>
+          <t>33.204318</t>
         </is>
       </c>
       <c r="AR98" t="inlineStr">
         <is>
-          <t>-117.25872</t>
+          <t>-117.20552</t>
         </is>
       </c>
       <c r="AS98" t="inlineStr">
@@ -23495,13 +23495,13 @@
       </c>
       <c r="AV98" t="inlineStr">
         <is>
-          <t>43293</t>
+          <t>45474</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -23510,27 +23510,27 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Vista Unified</t>
+          <t>Oceanside Unified</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>RANCHO MINERVA MIDDLE</t>
+          <t>REYNOLDS ELEMENTARY</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>37684526059802</t>
+          <t>37735696106546</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>0641190</t>
+          <t>0628250</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>06819</t>
+          <t>09169</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -23540,22 +23540,22 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2245 Foothill Drive</t>
+          <t>4575 Douglas Drive</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>2245 Foothill Dr.</t>
+          <t>4575 Douglas Dr.</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Vista</t>
+          <t>Oceanside</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>92084-6035</t>
+          <t>92057-4228</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -23565,22 +23565,22 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>1234 Arcadia Avenue</t>
+          <t>4575 Douglas Drive</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>1234 Arcadia Ave.</t>
+          <t>4575 Douglas Dr.</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>Vista</t>
+          <t>Oceanside</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>92084</t>
+          <t>92057-4228</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
@@ -23617,7 +23617,7 @@
         <v>29403</v>
       </c>
       <c r="Y99" s="2">
-        <v>45473</v>
+        <v>45092</v>
       </c>
       <c r="Z99" t="inlineStr">
         <is>
@@ -23646,12 +23646,12 @@
       </c>
       <c r="AE99" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AF99" t="inlineStr">
         <is>
-          <t>Intermediate/Middle Schools (Public)</t>
+          <t>Elementary Schools (Public)</t>
         </is>
       </c>
       <c r="AG99" t="inlineStr">
@@ -23666,22 +23666,22 @@
       </c>
       <c r="AI99" t="inlineStr">
         <is>
-          <t>INTMIDJR</t>
+          <t>ELEM</t>
         </is>
       </c>
       <c r="AJ99" t="inlineStr">
         <is>
-          <t>Intermediate/Middle/Junior High</t>
+          <t>Elementary</t>
         </is>
       </c>
       <c r="AK99" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>K-5</t>
         </is>
       </c>
       <c r="AL99" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>K-5</t>
         </is>
       </c>
       <c r="AM99" t="inlineStr">
@@ -23696,7 +23696,7 @@
       </c>
       <c r="AO99" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AP99" t="inlineStr">
@@ -23706,12 +23706,12 @@
       </c>
       <c r="AQ99" t="inlineStr">
         <is>
-          <t>33.204318</t>
+          <t>33.255862</t>
         </is>
       </c>
       <c r="AR99" t="inlineStr">
         <is>
-          <t>-117.20552</t>
+          <t>-117.31440</t>
         </is>
       </c>
       <c r="AS99" t="inlineStr">
@@ -23731,7 +23731,7 @@
       </c>
       <c r="AV99" t="inlineStr">
         <is>
-          <t>45474</t>
+          <t>45138</t>
         </is>
       </c>
     </row>
@@ -23746,27 +23746,27 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Oceanside Unified</t>
+          <t>Valley Center-Pauma Unified</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>REYNOLDS ELEMENTARY</t>
+          <t>VALLEY CENTER-PAUMA ADULT</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>37735696106546</t>
+          <t>37756143731338</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0628250</t>
+          <t>0600069</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>09169</t>
+          <t>13514</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -23776,22 +23776,22 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>4575 Douglas Drive</t>
+          <t>31322 Cole Grade Road</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>4575 Douglas Dr.</t>
+          <t>31322 Cole Grade Rd.</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Oceanside</t>
+          <t>Valley Center</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>92057-4228</t>
+          <t>92082</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
@@ -23801,22 +23801,22 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>4575 Douglas Drive</t>
+          <t>28751 Cole Grade Road</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>4575 Douglas Dr.</t>
+          <t>28751 Cole Grade Rd.</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>Oceanside</t>
+          <t>Valley Center</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>92057-4228</t>
+          <t>92082</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
@@ -23846,14 +23846,14 @@
       </c>
       <c r="W100" t="inlineStr">
         <is>
-          <t>Information Not Available</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="X100" s="2">
-        <v>29403</v>
+        <v>36781</v>
       </c>
       <c r="Y100" s="2">
-        <v>45092</v>
+        <v>44798</v>
       </c>
       <c r="Z100" t="inlineStr">
         <is>
@@ -23882,12 +23882,12 @@
       </c>
       <c r="AE100" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>70</t>
         </is>
       </c>
       <c r="AF100" t="inlineStr">
         <is>
-          <t>Elementary Schools (Public)</t>
+          <t>Adult Education Centers</t>
         </is>
       </c>
       <c r="AG100" t="inlineStr">
@@ -23902,22 +23902,22 @@
       </c>
       <c r="AI100" t="inlineStr">
         <is>
-          <t>ELEM</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="AJ100" t="inlineStr">
         <is>
-          <t>Elementary</t>
+          <t>High School</t>
         </is>
       </c>
       <c r="AK100" t="inlineStr">
         <is>
-          <t>K-5</t>
+          <t>9-12</t>
         </is>
       </c>
       <c r="AL100" t="inlineStr">
         <is>
-          <t>K-5</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AM100" t="inlineStr">
@@ -23927,12 +23927,12 @@
       </c>
       <c r="AN100" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="AO100" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AP100" t="inlineStr">
@@ -23942,12 +23942,12 @@
       </c>
       <c r="AQ100" t="inlineStr">
         <is>
-          <t>33.255862</t>
+          <t>33.280020</t>
         </is>
       </c>
       <c r="AR100" t="inlineStr">
         <is>
-          <t>-117.31440</t>
+          <t>-117.02398</t>
         </is>
       </c>
       <c r="AS100" t="inlineStr">
@@ -23967,42 +23967,42 @@
       </c>
       <c r="AV100" t="inlineStr">
         <is>
-          <t>45138</t>
+          <t>45232</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>San Diego</t>
+          <t>San Joaquin</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Valley Center-Pauma Unified</t>
+          <t>Lodi Unified</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>VALLEY CENTER-PAUMA ADULT</t>
+          <t>HOUSTON</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>37756143731338</t>
+          <t>39685856042121</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>0600069</t>
+          <t>0622230</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>13514</t>
+          <t>02650</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -24012,22 +24012,22 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>31322 Cole Grade Road</t>
+          <t>4600 East Acampo Road</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>31322 Cole Grade Rd.</t>
+          <t>4600 East Acampo Rd.</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Valley Center</t>
+          <t>Acampo</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>92082</t>
+          <t>95220-9601</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
@@ -24037,22 +24037,22 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>28751 Cole Grade Road</t>
+          <t>4600 East Acampo Road</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>28751 Cole Grade Rd.</t>
+          <t>4600 East Acampo Rd.</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>Valley Center</t>
+          <t>Acampo</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>92082</t>
+          <t>95220-9601</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
@@ -24086,10 +24086,10 @@
         </is>
       </c>
       <c r="X101" s="2">
-        <v>36781</v>
+        <v>29403</v>
       </c>
       <c r="Y101" s="2">
-        <v>44798</v>
+        <v>45443</v>
       </c>
       <c r="Z101" t="inlineStr">
         <is>
@@ -24118,12 +24118,12 @@
       </c>
       <c r="AE101" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AF101" t="inlineStr">
         <is>
-          <t>Adult Education Centers</t>
+          <t>Elementary Schools (Public)</t>
         </is>
       </c>
       <c r="AG101" t="inlineStr">
@@ -24138,22 +24138,22 @@
       </c>
       <c r="AI101" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>ELEM</t>
         </is>
       </c>
       <c r="AJ101" t="inlineStr">
         <is>
-          <t>High School</t>
+          <t>Elementary</t>
         </is>
       </c>
       <c r="AK101" t="inlineStr">
         <is>
-          <t>9-12</t>
+          <t>K-8</t>
         </is>
       </c>
       <c r="AL101" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>K-8</t>
         </is>
       </c>
       <c r="AM101" t="inlineStr">
@@ -24163,12 +24163,12 @@
       </c>
       <c r="AN101" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AO101" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AP101" t="inlineStr">
@@ -24178,12 +24178,12 @@
       </c>
       <c r="AQ101" t="inlineStr">
         <is>
-          <t>33.280020</t>
+          <t>38.174641</t>
         </is>
       </c>
       <c r="AR101" t="inlineStr">
         <is>
-          <t>-117.02398</t>
+          <t>-121.26085</t>
         </is>
       </c>
       <c r="AS101" t="inlineStr">
@@ -24203,13 +24203,13 @@
       </c>
       <c r="AV101" t="inlineStr">
         <is>
-          <t>45232</t>
+          <t>45467</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -24218,27 +24218,27 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Lodi Unified</t>
+          <t>Stockton Unified</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>HOUSTON</t>
+          <t>TYLER SKILLS ELEMENTARY</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>39685856042121</t>
+          <t>39686766042782</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>0622230</t>
+          <t>0638010</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>02650</t>
+          <t>06435</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -24248,22 +24248,22 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>4600 East Acampo Road</t>
+          <t>3830 Webster Avenue</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>4600 East Acampo Rd.</t>
+          <t>3830 Webster Ave.</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Acampo</t>
+          <t>Stockton</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>95220-9601</t>
+          <t>95204-1548</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
@@ -24273,22 +24273,22 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>4600 East Acampo Road</t>
+          <t>3830 Webster Avenue</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>4600 East Acampo Rd.</t>
+          <t>3830 Webster Ave.</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>Acampo</t>
+          <t>Stockton</t>
         </is>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>95220-9601</t>
+          <t>95204-1548</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
@@ -24325,7 +24325,7 @@
         <v>29403</v>
       </c>
       <c r="Y102" s="2">
-        <v>45443</v>
+        <v>43979</v>
       </c>
       <c r="Z102" t="inlineStr">
         <is>
@@ -24404,7 +24404,7 @@
       </c>
       <c r="AO102" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AP102" t="inlineStr">
@@ -24414,12 +24414,12 @@
       </c>
       <c r="AQ102" t="inlineStr">
         <is>
-          <t>38.174641</t>
+          <t>37.976784</t>
         </is>
       </c>
       <c r="AR102" t="inlineStr">
         <is>
-          <t>-121.26085</t>
+          <t>-121.33692</t>
         </is>
       </c>
       <c r="AS102" t="inlineStr">
@@ -24439,42 +24439,42 @@
       </c>
       <c r="AV102" t="inlineStr">
         <is>
-          <t>45467</t>
+          <t>44084</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>San Joaquin</t>
+          <t>San Mateo</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Stockton Unified</t>
+          <t>Ravenswood City Elementary</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>TYLER SKILLS ELEMENTARY</t>
+          <t>CESAR CHAVEZ ELEMENTARY</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>39686766042782</t>
+          <t>41689996044366</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>0638010</t>
+          <t>0631860</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>06435</t>
+          <t>04916</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -24484,22 +24484,22 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>3830 Webster Avenue</t>
+          <t>2450 Ralmar Street</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>3830 Webster Ave.</t>
+          <t>2450 Ralmar St.</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Stockton</t>
+          <t>East Palo Alto</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>95204-1548</t>
+          <t>94303-1040</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
@@ -24509,22 +24509,22 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>3830 Webster Avenue</t>
+          <t>2450 Ralmar Street</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>3830 Webster Ave.</t>
+          <t>2450 Ralmar St.</t>
         </is>
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>Stockton</t>
+          <t>East Palo Alto</t>
         </is>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>95204-1548</t>
+          <t>94303-1040</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
@@ -24554,14 +24554,14 @@
       </c>
       <c r="W103" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>Information Not Available</t>
         </is>
       </c>
       <c r="X103" s="2">
         <v>29403</v>
       </c>
       <c r="Y103" s="2">
-        <v>43979</v>
+        <v>43630</v>
       </c>
       <c r="Z103" t="inlineStr">
         <is>
@@ -24580,22 +24580,22 @@
       </c>
       <c r="AC103" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="AD103" t="inlineStr">
         <is>
-          <t>Unified School District</t>
+          <t>Elementary School District</t>
         </is>
       </c>
       <c r="AE103" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AF103" t="inlineStr">
         <is>
-          <t>Elementary Schools (Public)</t>
+          <t>Intermediate/Middle Schools (Public)</t>
         </is>
       </c>
       <c r="AG103" t="inlineStr">
@@ -24610,22 +24610,22 @@
       </c>
       <c r="AI103" t="inlineStr">
         <is>
-          <t>ELEM</t>
+          <t>INTMIDJR</t>
         </is>
       </c>
       <c r="AJ103" t="inlineStr">
         <is>
-          <t>Elementary</t>
+          <t>Intermediate/Middle/Junior High</t>
         </is>
       </c>
       <c r="AK103" t="inlineStr">
         <is>
-          <t>K-8</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AL103" t="inlineStr">
         <is>
-          <t>K-8</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AM103" t="inlineStr">
@@ -24650,12 +24650,12 @@
       </c>
       <c r="AQ103" t="inlineStr">
         <is>
-          <t>37.976784</t>
+          <t>37.473600</t>
         </is>
       </c>
       <c r="AR103" t="inlineStr">
         <is>
-          <t>-121.33692</t>
+          <t>-122.14500</t>
         </is>
       </c>
       <c r="AS103" t="inlineStr">
@@ -24675,13 +24675,13 @@
       </c>
       <c r="AV103" t="inlineStr">
         <is>
-          <t>44084</t>
+          <t>43769</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -24695,12 +24695,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>CESAR CHAVEZ ELEMENTARY</t>
+          <t>WILLOW OAKS ELEMENTARY</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>41689996044366</t>
+          <t>41689996044416</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -24710,7 +24710,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>04916</t>
+          <t>04917</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -24720,22 +24720,22 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>2450 Ralmar Street</t>
+          <t>620 Willow Road</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>2450 Ralmar St.</t>
+          <t>620 Willow Rd.</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>East Palo Alto</t>
+          <t>Menlo Park</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>94303-1040</t>
+          <t>94025-2619</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
@@ -24745,22 +24745,22 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>2450 Ralmar Street</t>
+          <t>620 Willow Road</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2450 Ralmar St.</t>
+          <t>620 Willow Rd.</t>
         </is>
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>East Palo Alto</t>
+          <t>Menlo Park</t>
         </is>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>94303-1040</t>
+          <t>94025-2619</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
@@ -24785,7 +24785,7 @@
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>mmasuda@ravenswoodschools.org</t>
         </is>
       </c>
       <c r="W104" t="inlineStr">
@@ -24797,7 +24797,7 @@
         <v>29403</v>
       </c>
       <c r="Y104" s="2">
-        <v>43630</v>
+        <v>44012</v>
       </c>
       <c r="Z104" t="inlineStr">
         <is>
@@ -24826,12 +24826,12 @@
       </c>
       <c r="AE104" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AF104" t="inlineStr">
         <is>
-          <t>Intermediate/Middle Schools (Public)</t>
+          <t>Elementary Schools (Public)</t>
         </is>
       </c>
       <c r="AG104" t="inlineStr">
@@ -24846,22 +24846,22 @@
       </c>
       <c r="AI104" t="inlineStr">
         <is>
-          <t>INTMIDJR</t>
+          <t>ELEM</t>
         </is>
       </c>
       <c r="AJ104" t="inlineStr">
         <is>
-          <t>Intermediate/Middle/Junior High</t>
+          <t>Elementary</t>
         </is>
       </c>
       <c r="AK104" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>K-5</t>
         </is>
       </c>
       <c r="AL104" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>K-5</t>
         </is>
       </c>
       <c r="AM104" t="inlineStr">
@@ -24886,12 +24886,12 @@
       </c>
       <c r="AQ104" t="inlineStr">
         <is>
-          <t>37.473600</t>
+          <t>37.462781</t>
         </is>
       </c>
       <c r="AR104" t="inlineStr">
         <is>
-          <t>-122.14500</t>
+          <t>-122.15890</t>
         </is>
       </c>
       <c r="AS104" t="inlineStr">
@@ -24911,7 +24911,7 @@
       </c>
       <c r="AV104" t="inlineStr">
         <is>
-          <t>43769</t>
+          <t>44029</t>
         </is>
       </c>
     </row>
@@ -24926,27 +24926,27 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Ravenswood City Elementary</t>
+          <t>Redwood City Elementary</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>WILLOW OAKS ELEMENTARY</t>
+          <t>FAIR OAKS ELEMENTARY</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>41689996044416</t>
+          <t>41690056044457</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>0631860</t>
+          <t>0632130</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>04917</t>
+          <t>04964</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -24956,22 +24956,22 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>620 Willow Road</t>
+          <t>2950 Fair Oaks Avenue</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>620 Willow Rd.</t>
+          <t>2950 Fair Oaks Ave.</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Menlo Park</t>
+          <t>Redwood City</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>94025-2619</t>
+          <t>94063-3828</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
@@ -24981,22 +24981,22 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>620 Willow Road</t>
+          <t>2950 Fair Oaks Avenue</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>620 Willow Rd.</t>
+          <t>2950 Fair Oaks Ave.</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>Menlo Park</t>
+          <t>Redwood City</t>
         </is>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>94025-2619</t>
+          <t>94063-3828</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
@@ -25021,19 +25021,19 @@
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>mmasuda@ravenswoodschools.org</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="W105" t="inlineStr">
         <is>
-          <t>Information Not Available</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="X105" s="2">
         <v>29403</v>
       </c>
       <c r="Y105" s="2">
-        <v>44012</v>
+        <v>43647</v>
       </c>
       <c r="Z105" t="inlineStr">
         <is>
@@ -25122,12 +25122,12 @@
       </c>
       <c r="AQ105" t="inlineStr">
         <is>
-          <t>37.462781</t>
+          <t>37.479854</t>
         </is>
       </c>
       <c r="AR105" t="inlineStr">
         <is>
-          <t>-122.15890</t>
+          <t>-122.20542</t>
         </is>
       </c>
       <c r="AS105" t="inlineStr">
@@ -25147,7 +25147,7 @@
       </c>
       <c r="AV105" t="inlineStr">
         <is>
-          <t>44029</t>
+          <t>43664</t>
         </is>
       </c>
     </row>
@@ -25167,12 +25167,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>FAIR OAKS ELEMENTARY</t>
+          <t>HAWES ELEMENTARY</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>41690056044457</t>
+          <t>41690056044481</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -25182,7 +25182,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>04964</t>
+          <t>04966</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -25192,12 +25192,12 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>2950 Fair Oaks Avenue</t>
+          <t>909 Roosevelt Avenue</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>2950 Fair Oaks Ave.</t>
+          <t>909 Roosevelt Ave.</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -25207,7 +25207,7 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>94063-3828</t>
+          <t>94061-1513</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
@@ -25217,12 +25217,12 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>2950 Fair Oaks Avenue</t>
+          <t>750 Bradford Street</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2950 Fair Oaks Ave.</t>
+          <t>750 Bradford St.</t>
         </is>
       </c>
       <c r="P106" t="inlineStr">
@@ -25232,7 +25232,7 @@
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>94063-3828</t>
+          <t>94063-1727</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
@@ -25358,12 +25358,12 @@
       </c>
       <c r="AQ106" t="inlineStr">
         <is>
-          <t>37.479854</t>
+          <t>37.473272</t>
         </is>
       </c>
       <c r="AR106" t="inlineStr">
         <is>
-          <t>-122.20542</t>
+          <t>-122.23283</t>
         </is>
       </c>
       <c r="AS106" t="inlineStr">
@@ -25403,12 +25403,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>HAWES ELEMENTARY</t>
+          <t>JOHN GILL ELEMENTARY</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>41690056044481</t>
+          <t>41690056044523</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -25418,7 +25418,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>04966</t>
+          <t>04969</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -25428,12 +25428,12 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>909 Roosevelt Avenue</t>
+          <t>555 Avenue Del Ora</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>909 Roosevelt Ave.</t>
+          <t>555 Avenue Del Ora</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -25443,7 +25443,7 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>94061-1513</t>
+          <t>94062-2259</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
@@ -25453,12 +25453,12 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>750 Bradford Street</t>
+          <t>555 Avenue Del Ora</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>750 Bradford St.</t>
+          <t>555 Avenue Del Ora</t>
         </is>
       </c>
       <c r="P107" t="inlineStr">
@@ -25468,7 +25468,7 @@
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>94063-1727</t>
+          <t>94062-2259</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
@@ -25594,12 +25594,12 @@
       </c>
       <c r="AQ107" t="inlineStr">
         <is>
-          <t>37.473272</t>
+          <t>37.473629</t>
         </is>
       </c>
       <c r="AR107" t="inlineStr">
         <is>
-          <t>-122.23283</t>
+          <t>-122.24101</t>
         </is>
       </c>
       <c r="AS107" t="inlineStr">
@@ -25619,13 +25619,13 @@
       </c>
       <c r="AV107" t="inlineStr">
         <is>
-          <t>43664</t>
+          <t>43703</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -25634,27 +25634,27 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Redwood City Elementary</t>
+          <t>San Bruno Park Elementary</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>JOHN GILL ELEMENTARY</t>
+          <t>EL CRYSTAL ELEMENTARY</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>41690056044523</t>
+          <t>41690136044663</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>0632130</t>
+          <t>0634230</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>04969</t>
+          <t>05396</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -25664,22 +25664,22 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>555 Avenue Del Ora</t>
+          <t>201 North Balboa Way</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>555 Avenue Del Ora</t>
+          <t>201 North Balboa Way</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Redwood City</t>
+          <t>San Bruno</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>94062-2259</t>
+          <t>94066-4763</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
@@ -25689,22 +25689,22 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>555 Avenue Del Ora</t>
+          <t>201 North Balboa Way</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>555 Avenue Del Ora</t>
+          <t>201 North Balboa Way</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>Redwood City</t>
+          <t>San Bruno</t>
         </is>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>94062-2259</t>
+          <t>94066-4763</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
@@ -25734,14 +25734,14 @@
       </c>
       <c r="W108" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>Information Not Available</t>
         </is>
       </c>
       <c r="X108" s="2">
         <v>29403</v>
       </c>
       <c r="Y108" s="2">
-        <v>43647</v>
+        <v>43260</v>
       </c>
       <c r="Z108" t="inlineStr">
         <is>
@@ -25830,12 +25830,12 @@
       </c>
       <c r="AQ108" t="inlineStr">
         <is>
-          <t>37.473629</t>
+          <t>37.614473</t>
         </is>
       </c>
       <c r="AR108" t="inlineStr">
         <is>
-          <t>-122.24101</t>
+          <t>-122.41297</t>
         </is>
       </c>
       <c r="AS108" t="inlineStr">
@@ -25855,13 +25855,13 @@
       </c>
       <c r="AV108" t="inlineStr">
         <is>
-          <t>43703</t>
+          <t>43318</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -25875,12 +25875,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>EL CRYSTAL ELEMENTARY</t>
+          <t>ROLLINGWOOD ELEMENTARY</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>41690136044663</t>
+          <t>41690136044705</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -25890,7 +25890,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>05396</t>
+          <t>05399</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -25900,12 +25900,12 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>201 North Balboa Way</t>
+          <t>2500 Cottonwood Drive</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>201 North Balboa Way</t>
+          <t>2500 Cottonwood Dr.</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -25915,7 +25915,7 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>94066-4763</t>
+          <t>94066-2699</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
@@ -25925,12 +25925,12 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>201 North Balboa Way</t>
+          <t>2500 Cottonwood Drive</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>201 North Balboa Way</t>
+          <t>2500 Cottonwood Dr.</t>
         </is>
       </c>
       <c r="P109" t="inlineStr">
@@ -25940,7 +25940,7 @@
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>94066-4763</t>
+          <t>94066-2699</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
@@ -25977,7 +25977,7 @@
         <v>29403</v>
       </c>
       <c r="Y109" s="2">
-        <v>43260</v>
+        <v>45086</v>
       </c>
       <c r="Z109" t="inlineStr">
         <is>
@@ -26036,14 +26036,14 @@
       </c>
       <c r="AK109" t="inlineStr">
         <is>
+          <t>P-5</t>
+        </is>
+      </c>
+      <c r="AL109" t="inlineStr">
+        <is>
           <t>K-5</t>
         </is>
       </c>
-      <c r="AL109" t="inlineStr">
-        <is>
-          <t>K-5</t>
-        </is>
-      </c>
       <c r="AM109" t="inlineStr">
         <is>
           <t>N</t>
@@ -26066,12 +26066,12 @@
       </c>
       <c r="AQ109" t="inlineStr">
         <is>
-          <t>37.614473</t>
+          <t>37.630122</t>
         </is>
       </c>
       <c r="AR109" t="inlineStr">
         <is>
-          <t>-122.41297</t>
+          <t>-122.44437</t>
         </is>
       </c>
       <c r="AS109" t="inlineStr">
@@ -26091,42 +26091,42 @@
       </c>
       <c r="AV109" t="inlineStr">
         <is>
-          <t>43318</t>
+          <t>45145</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>San Mateo</t>
+          <t>Santa Barbara</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>San Bruno Park Elementary</t>
+          <t>Santa Barbara Unified</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>ROLLINGWOOD ELEMENTARY</t>
+          <t>OPEN ALTERNATIVE</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>41690136044705</t>
+          <t>42767866095962</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>0634230</t>
+          <t>0601414</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>05399</t>
+          <t>06026</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -26136,22 +26136,22 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>2500 Cottonwood Drive</t>
+          <t>4025 Foothill Road</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>2500 Cottonwood Dr.</t>
+          <t>4025 Foothill Rd.</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>San Bruno</t>
+          <t>Santa Barbara</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>94066-2699</t>
+          <t>93110-1209</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
@@ -26161,22 +26161,22 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>2500 Cottonwood Drive</t>
+          <t>4025 Foothill Road</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2500 Cottonwood Dr.</t>
+          <t>4025 Foothill Rd.</t>
         </is>
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>San Bruno</t>
+          <t>Santa Barbara</t>
         </is>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>94066-2699</t>
+          <t>93110-1209</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
@@ -26201,7 +26201,7 @@
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>rramirez@sbunified.org</t>
         </is>
       </c>
       <c r="W110" t="inlineStr">
@@ -26210,10 +26210,10 @@
         </is>
       </c>
       <c r="X110" s="2">
-        <v>29403</v>
+        <v>27576</v>
       </c>
       <c r="Y110" s="2">
-        <v>45086</v>
+        <v>43280</v>
       </c>
       <c r="Z110" t="inlineStr">
         <is>
@@ -26232,12 +26232,12 @@
       </c>
       <c r="AC110" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>54</t>
         </is>
       </c>
       <c r="AD110" t="inlineStr">
         <is>
-          <t>Elementary School District</t>
+          <t>Unified School District</t>
         </is>
       </c>
       <c r="AE110" t="inlineStr">
@@ -26272,12 +26272,12 @@
       </c>
       <c r="AK110" t="inlineStr">
         <is>
-          <t>P-5</t>
+          <t>K-6</t>
         </is>
       </c>
       <c r="AL110" t="inlineStr">
         <is>
-          <t>K-5</t>
+          <t>K-6</t>
         </is>
       </c>
       <c r="AM110" t="inlineStr">
@@ -26302,12 +26302,12 @@
       </c>
       <c r="AQ110" t="inlineStr">
         <is>
-          <t>37.630122</t>
+          <t>34.450109</t>
         </is>
       </c>
       <c r="AR110" t="inlineStr">
         <is>
-          <t>-122.44437</t>
+          <t>-119.75570</t>
         </is>
       </c>
       <c r="AS110" t="inlineStr">
@@ -26327,42 +26327,42 @@
       </c>
       <c r="AV110" t="inlineStr">
         <is>
-          <t>45145</t>
+          <t>43286</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Santa Barbara</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Santa Barbara Unified</t>
+          <t>Alum Rock Union Elementary</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>OPEN ALTERNATIVE</t>
+          <t>CLYDE ARBUCKLE ELEMENTARY</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>42767866095962</t>
+          <t>43693696046130</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>0601414</t>
+          <t>0602310</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>06026</t>
+          <t>00100</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -26372,22 +26372,22 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>4025 Foothill Road</t>
+          <t>1970 Cinderella Lane</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>4025 Foothill Rd.</t>
+          <t>1970 Cinderella Ln.</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Santa Barbara</t>
+          <t>San Jose</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>93110-1209</t>
+          <t>95116-3503</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
@@ -26397,22 +26397,22 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>4025 Foothill Road</t>
+          <t>1970 Cinderella Lane</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>4025 Foothill Rd.</t>
+          <t>1970 Cinderella Ln.</t>
         </is>
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>Santa Barbara</t>
+          <t>San Jose</t>
         </is>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>93110-1209</t>
+          <t>95116-3503</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
@@ -26437,19 +26437,19 @@
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>rramirez@sbunified.org</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="W111" t="inlineStr">
         <is>
-          <t>Information Not Available</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="X111" s="2">
-        <v>27576</v>
+        <v>29403</v>
       </c>
       <c r="Y111" s="2">
-        <v>43280</v>
+        <v>43991</v>
       </c>
       <c r="Z111" t="inlineStr">
         <is>
@@ -26468,12 +26468,12 @@
       </c>
       <c r="AC111" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="AD111" t="inlineStr">
         <is>
-          <t>Unified School District</t>
+          <t>Elementary School District</t>
         </is>
       </c>
       <c r="AE111" t="inlineStr">
@@ -26508,12 +26508,12 @@
       </c>
       <c r="AK111" t="inlineStr">
         <is>
-          <t>K-6</t>
+          <t>1-5</t>
         </is>
       </c>
       <c r="AL111" t="inlineStr">
         <is>
-          <t>K-6</t>
+          <t>1-5</t>
         </is>
       </c>
       <c r="AM111" t="inlineStr">
@@ -26538,12 +26538,12 @@
       </c>
       <c r="AQ111" t="inlineStr">
         <is>
-          <t>34.450109</t>
+          <t>37.344775</t>
         </is>
       </c>
       <c r="AR111" t="inlineStr">
         <is>
-          <t>-119.75570</t>
+          <t>-121.84101</t>
         </is>
       </c>
       <c r="AS111" t="inlineStr">
@@ -26563,13 +26563,13 @@
       </c>
       <c r="AV111" t="inlineStr">
         <is>
-          <t>43286</t>
+          <t>44046</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -26583,12 +26583,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>CLYDE ARBUCKLE ELEMENTARY</t>
+          <t>CLYDE L. FISCHER MIDDLE</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>43693696046130</t>
+          <t>43693696046148</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -26598,7 +26598,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>00100</t>
+          <t>00104</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -26608,12 +26608,12 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>1970 Cinderella Lane</t>
+          <t>1720 Hopkins Drive</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>1970 Cinderella Ln.</t>
+          <t>1720 Hopkins Dr.</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -26623,7 +26623,7 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>95116-3503</t>
+          <t>95122-1632</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
@@ -26633,12 +26633,12 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>1970 Cinderella Lane</t>
+          <t>1720 Hopkins Drive</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>1970 Cinderella Ln.</t>
+          <t>1720 Hopkins Dr.</t>
         </is>
       </c>
       <c r="P112" t="inlineStr">
@@ -26648,7 +26648,7 @@
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>95116-3503</t>
+          <t>95122-1632</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
@@ -26685,7 +26685,7 @@
         <v>29403</v>
       </c>
       <c r="Y112" s="2">
-        <v>43991</v>
+        <v>44377</v>
       </c>
       <c r="Z112" t="inlineStr">
         <is>
@@ -26714,12 +26714,12 @@
       </c>
       <c r="AE112" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AF112" t="inlineStr">
         <is>
-          <t>Elementary Schools (Public)</t>
+          <t>Intermediate/Middle Schools (Public)</t>
         </is>
       </c>
       <c r="AG112" t="inlineStr">
@@ -26734,22 +26734,22 @@
       </c>
       <c r="AI112" t="inlineStr">
         <is>
-          <t>ELEM</t>
+          <t>INTMIDJR</t>
         </is>
       </c>
       <c r="AJ112" t="inlineStr">
         <is>
-          <t>Elementary</t>
+          <t>Intermediate/Middle/Junior High</t>
         </is>
       </c>
       <c r="AK112" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="AL112" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="AM112" t="inlineStr">
@@ -26774,12 +26774,12 @@
       </c>
       <c r="AQ112" t="inlineStr">
         <is>
-          <t>37.344775</t>
+          <t>37.336680</t>
         </is>
       </c>
       <c r="AR112" t="inlineStr">
         <is>
-          <t>-121.84101</t>
+          <t>-121.83083</t>
         </is>
       </c>
       <c r="AS112" t="inlineStr">
@@ -26799,7 +26799,7 @@
       </c>
       <c r="AV112" t="inlineStr">
         <is>
-          <t>44046</t>
+          <t>44383</t>
         </is>
       </c>
     </row>
@@ -26819,12 +26819,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>CLYDE L. FISCHER MIDDLE</t>
+          <t>LEE MATHSON MIDDLE</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>43693696046148</t>
+          <t>43693696046197</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -26834,7 +26834,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>00104</t>
+          <t>00110</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -26844,12 +26844,12 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>1720 Hopkins Drive</t>
+          <t>2050 Kammerer Avenue</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>1720 Hopkins Dr.</t>
+          <t>2050 Kammerer Ave.</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -26859,7 +26859,7 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>95122-1632</t>
+          <t>95116-3020</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
@@ -26869,12 +26869,12 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>1720 Hopkins Drive</t>
+          <t>2050 Kammerer Avenue</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>1720 Hopkins Dr.</t>
+          <t>2050 Kammerer Ave.</t>
         </is>
       </c>
       <c r="P113" t="inlineStr">
@@ -26884,7 +26884,7 @@
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>95122-1632</t>
+          <t>95116-3020</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
@@ -27010,12 +27010,12 @@
       </c>
       <c r="AQ113" t="inlineStr">
         <is>
-          <t>37.336680</t>
+          <t>37.350825</t>
         </is>
       </c>
       <c r="AR113" t="inlineStr">
         <is>
-          <t>-121.83083</t>
+          <t>-121.84408</t>
         </is>
       </c>
       <c r="AS113" t="inlineStr">
@@ -27041,7 +27041,7 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -27050,27 +27050,27 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Alum Rock Union Elementary</t>
+          <t>Campbell Union</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>LEE MATHSON MIDDLE</t>
+          <t>CAMPBELL MIDDLE</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>43693696046197</t>
+          <t>43693936046528</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>0602310</t>
+          <t>0607200</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>00110</t>
+          <t>00662</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -27080,22 +27080,22 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>2050 Kammerer Avenue</t>
+          <t>295 West Cherry Lane</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>2050 Kammerer Ave.</t>
+          <t>295 West Cherry Ln.</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>San Jose</t>
+          <t>Campbell</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>95116-3020</t>
+          <t>95008-3417</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
@@ -27105,22 +27105,22 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>2050 Kammerer Avenue</t>
+          <t>295 West Cherry Lane</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2050 Kammerer Ave.</t>
+          <t>295 West Cherry Ln.</t>
         </is>
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>San Jose</t>
+          <t>Campbell</t>
         </is>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>95116-3020</t>
+          <t>95008-3417</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
@@ -27150,14 +27150,14 @@
       </c>
       <c r="W114" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>Information Not Available</t>
         </is>
       </c>
       <c r="X114" s="2">
         <v>29403</v>
       </c>
       <c r="Y114" s="2">
-        <v>44377</v>
+        <v>43281</v>
       </c>
       <c r="Z114" t="inlineStr">
         <is>
@@ -27216,12 +27216,12 @@
       </c>
       <c r="AK114" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="AL114" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="AM114" t="inlineStr">
@@ -27246,12 +27246,12 @@
       </c>
       <c r="AQ114" t="inlineStr">
         <is>
-          <t>37.350825</t>
+          <t>37.283692</t>
         </is>
       </c>
       <c r="AR114" t="inlineStr">
         <is>
-          <t>-121.84408</t>
+          <t>-121.95541</t>
         </is>
       </c>
       <c r="AS114" t="inlineStr">
@@ -27271,13 +27271,13 @@
       </c>
       <c r="AV114" t="inlineStr">
         <is>
-          <t>44383</t>
+          <t>43284</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -27286,27 +27286,27 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Campbell Union</t>
+          <t>Cupertino Union</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>CAMPBELL DISTANCE LEARNING</t>
+          <t>R. I. MEYERHOLZ ELEMENTARY</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>43693930140285</t>
+          <t>43694196047047</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>0607200</t>
+          <t>0610290</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>14506</t>
+          <t>01141</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -27316,22 +27316,22 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>155 North Third Street</t>
+          <t>6990 Melvin Drive</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>155 North Third St.</t>
+          <t>6990 Melvin Dr.</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Campbell</t>
+          <t>San Jose</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>95008-2044</t>
+          <t>95129-2858</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
@@ -27341,22 +27341,22 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>155 North Third Street</t>
+          <t>6990 Melvin Drive</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>155 North Third St.</t>
+          <t>6990 Melvin Dr.</t>
         </is>
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>Campbell</t>
+          <t>San Jose</t>
         </is>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>95008</t>
+          <t>95129-2858</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
@@ -27390,10 +27390,10 @@
         </is>
       </c>
       <c r="X115" s="2">
-        <v>44067</v>
+        <v>29403</v>
       </c>
       <c r="Y115" s="2">
-        <v>44377</v>
+        <v>44722</v>
       </c>
       <c r="Z115" t="inlineStr">
         <is>
@@ -27452,7 +27452,7 @@
       </c>
       <c r="AK115" t="inlineStr">
         <is>
-          <t>K-8</t>
+          <t>K-5</t>
         </is>
       </c>
       <c r="AL115" t="inlineStr">
@@ -27462,7 +27462,7 @@
       </c>
       <c r="AM115" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AN115" t="inlineStr">
@@ -27482,12 +27482,12 @@
       </c>
       <c r="AQ115" t="inlineStr">
         <is>
-          <t>37.288886</t>
+          <t>37.307093</t>
         </is>
       </c>
       <c r="AR115" t="inlineStr">
         <is>
-          <t>-121.94779</t>
+          <t>-122.02658</t>
         </is>
       </c>
       <c r="AS115" t="inlineStr">
@@ -27507,13 +27507,13 @@
       </c>
       <c r="AV115" t="inlineStr">
         <is>
-          <t>44412</t>
+          <t>44735</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -27522,27 +27522,27 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Campbell Union</t>
+          <t>Cupertino Union</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>CAMPBELL MIDDLE</t>
+          <t>WILLIAM REGNART ELEMENTARY</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>43693936046528</t>
+          <t>43694196047054</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>0607200</t>
+          <t>0610290</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>00662</t>
+          <t>01150</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -27552,22 +27552,22 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>295 West Cherry Lane</t>
+          <t>1170 Yorkshire Drive</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>295 West Cherry Ln.</t>
+          <t>1170 Yorkshire Dr.</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Campbell</t>
+          <t>Cupertino</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>95008-3417</t>
+          <t>95014-4963</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
@@ -27577,22 +27577,22 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>295 West Cherry Lane</t>
+          <t>1170 Yorkshire Drive</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>295 West Cherry Ln.</t>
+          <t>1170 Yorkshire Dr.</t>
         </is>
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>Campbell</t>
+          <t>Cupertino</t>
         </is>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>95008-3417</t>
+          <t>95014-4963</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
@@ -27622,14 +27622,14 @@
       </c>
       <c r="W116" t="inlineStr">
         <is>
-          <t>Information Not Available</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="X116" s="2">
         <v>29403</v>
       </c>
       <c r="Y116" s="2">
-        <v>43281</v>
+        <v>44722</v>
       </c>
       <c r="Z116" t="inlineStr">
         <is>
@@ -27658,12 +27658,12 @@
       </c>
       <c r="AE116" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AF116" t="inlineStr">
         <is>
-          <t>Intermediate/Middle Schools (Public)</t>
+          <t>Elementary Schools (Public)</t>
         </is>
       </c>
       <c r="AG116" t="inlineStr">
@@ -27678,22 +27678,22 @@
       </c>
       <c r="AI116" t="inlineStr">
         <is>
-          <t>INTMIDJR</t>
+          <t>ELEM</t>
         </is>
       </c>
       <c r="AJ116" t="inlineStr">
         <is>
-          <t>Intermediate/Middle/Junior High</t>
+          <t>Elementary</t>
         </is>
       </c>
       <c r="AK116" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>K-5</t>
         </is>
       </c>
       <c r="AL116" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>K-5</t>
         </is>
       </c>
       <c r="AM116" t="inlineStr">
@@ -27718,12 +27718,12 @@
       </c>
       <c r="AQ116" t="inlineStr">
         <is>
-          <t>37.283692</t>
+          <t>37.303967</t>
         </is>
       </c>
       <c r="AR116" t="inlineStr">
         <is>
-          <t>-121.95541</t>
+          <t>-122.04800</t>
         </is>
       </c>
       <c r="AS116" t="inlineStr">
@@ -27743,13 +27743,13 @@
       </c>
       <c r="AV116" t="inlineStr">
         <is>
-          <t>43284</t>
+          <t>44735</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -27758,27 +27758,27 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Cupertino Union</t>
+          <t>Evergreen Elementary</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>R. I. MEYERHOLZ ELEMENTARY</t>
+          <t>LAURELWOOD ELEMENTARY</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>43694196047047</t>
+          <t>43694356071534</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>0610290</t>
+          <t>0613140</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>01141</t>
+          <t>01497</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -27788,12 +27788,12 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>6990 Melvin Drive</t>
+          <t>4280 Partridge Drive</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>6990 Melvin Dr.</t>
+          <t>4280 Partridge Dr.</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -27803,7 +27803,7 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>95129-2858</t>
+          <t>95121-1012</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
@@ -27813,12 +27813,12 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>6990 Melvin Drive</t>
+          <t>4280 Partridge Drive</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>6990 Melvin Dr.</t>
+          <t>4280 Partridge Dr.</t>
         </is>
       </c>
       <c r="P117" t="inlineStr">
@@ -27828,7 +27828,7 @@
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>95129-2858</t>
+          <t>95121-1012</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
@@ -27865,7 +27865,7 @@
         <v>29403</v>
       </c>
       <c r="Y117" s="2">
-        <v>44722</v>
+        <v>44013</v>
       </c>
       <c r="Z117" t="inlineStr">
         <is>
@@ -27924,12 +27924,12 @@
       </c>
       <c r="AK117" t="inlineStr">
         <is>
-          <t>K-5</t>
+          <t>K-6</t>
         </is>
       </c>
       <c r="AL117" t="inlineStr">
         <is>
-          <t>K-5</t>
+          <t>K-6</t>
         </is>
       </c>
       <c r="AM117" t="inlineStr">
@@ -27954,12 +27954,12 @@
       </c>
       <c r="AQ117" t="inlineStr">
         <is>
-          <t>37.307093</t>
+          <t>37.302517</t>
         </is>
       </c>
       <c r="AR117" t="inlineStr">
         <is>
-          <t>-122.02658</t>
+          <t>-121.78003</t>
         </is>
       </c>
       <c r="AS117" t="inlineStr">
@@ -27979,13 +27979,13 @@
       </c>
       <c r="AV117" t="inlineStr">
         <is>
-          <t>44735</t>
+          <t>44504</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -27994,27 +27994,27 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Cupertino Union</t>
+          <t>Evergreen Elementary</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>WILLIAM REGNART ELEMENTARY</t>
+          <t>DOVE HILL ELEMENTARY</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>43694196047054</t>
+          <t>43694356107593</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>0610290</t>
+          <t>0613140</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>01150</t>
+          <t>09366</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -28024,22 +28024,22 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>1170 Yorkshire Drive</t>
+          <t>1460 Colt Way</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>1170 Yorkshire Dr.</t>
+          <t>1460 Colt Way</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Cupertino</t>
+          <t>San Jose</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>95014-4963</t>
+          <t>95121-1900</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
@@ -28049,22 +28049,22 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>1170 Yorkshire Drive</t>
+          <t>1460 Colt Way</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>1170 Yorkshire Dr.</t>
+          <t>1460 Colt Way</t>
         </is>
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>Cupertino</t>
+          <t>San Jose</t>
         </is>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>95014-4963</t>
+          <t>95121-1900</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
@@ -28101,7 +28101,7 @@
         <v>29403</v>
       </c>
       <c r="Y118" s="2">
-        <v>44722</v>
+        <v>44013</v>
       </c>
       <c r="Z118" t="inlineStr">
         <is>
@@ -28160,12 +28160,12 @@
       </c>
       <c r="AK118" t="inlineStr">
         <is>
-          <t>K-5</t>
+          <t>K-6</t>
         </is>
       </c>
       <c r="AL118" t="inlineStr">
         <is>
-          <t>K-5</t>
+          <t>K-6</t>
         </is>
       </c>
       <c r="AM118" t="inlineStr">
@@ -28190,12 +28190,12 @@
       </c>
       <c r="AQ118" t="inlineStr">
         <is>
-          <t>37.303967</t>
+          <t>37.301101</t>
         </is>
       </c>
       <c r="AR118" t="inlineStr">
         <is>
-          <t>-122.04800</t>
+          <t>-121.80983</t>
         </is>
       </c>
       <c r="AS118" t="inlineStr">
@@ -28215,13 +28215,13 @@
       </c>
       <c r="AV118" t="inlineStr">
         <is>
-          <t>44735</t>
+          <t>44504</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -28230,27 +28230,27 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Evergreen Elementary</t>
+          <t>Gilroy Unified</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>LAURELWOOD ELEMENTARY</t>
+          <t>ANTONIO DEL BUONO ELEMENTARY</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>43694356071534</t>
+          <t>43694846116461</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>0613140</t>
+          <t>0615180</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>01497</t>
+          <t>08355</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -28260,22 +28260,22 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>4280 Partridge Drive</t>
+          <t>9300 Wren Avenue</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>4280 Partridge Dr.</t>
+          <t>9300 Wren Ave.</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>San Jose</t>
+          <t>Gilroy</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>95121-1012</t>
+          <t>95020-7636</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
@@ -28285,22 +28285,22 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>4280 Partridge Drive</t>
+          <t>9300 Wren Avenue</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>4280 Partridge Dr.</t>
+          <t>9300 Wren Ave.</t>
         </is>
       </c>
       <c r="P119" t="inlineStr">
         <is>
-          <t>San Jose</t>
+          <t>Gilroy</t>
         </is>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>95121-1012</t>
+          <t>95020-7636</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
@@ -28330,14 +28330,14 @@
       </c>
       <c r="W119" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>Information Not Available</t>
         </is>
       </c>
       <c r="X119" s="2">
-        <v>29403</v>
+        <v>36375</v>
       </c>
       <c r="Y119" s="2">
-        <v>44013</v>
+        <v>43997</v>
       </c>
       <c r="Z119" t="inlineStr">
         <is>
@@ -28356,12 +28356,12 @@
       </c>
       <c r="AC119" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>54</t>
         </is>
       </c>
       <c r="AD119" t="inlineStr">
         <is>
-          <t>Elementary School District</t>
+          <t>Unified School District</t>
         </is>
       </c>
       <c r="AE119" t="inlineStr">
@@ -28396,12 +28396,12 @@
       </c>
       <c r="AK119" t="inlineStr">
         <is>
-          <t>K-6</t>
+          <t>K-5</t>
         </is>
       </c>
       <c r="AL119" t="inlineStr">
         <is>
-          <t>K-6</t>
+          <t>K-5</t>
         </is>
       </c>
       <c r="AM119" t="inlineStr">
@@ -28426,12 +28426,12 @@
       </c>
       <c r="AQ119" t="inlineStr">
         <is>
-          <t>37.302517</t>
+          <t>37.029814</t>
         </is>
       </c>
       <c r="AR119" t="inlineStr">
         <is>
-          <t>-121.78003</t>
+          <t>-121.58746</t>
         </is>
       </c>
       <c r="AS119" t="inlineStr">
@@ -28451,13 +28451,13 @@
       </c>
       <c r="AV119" t="inlineStr">
         <is>
-          <t>44504</t>
+          <t>44008</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -28466,27 +28466,27 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Evergreen Elementary</t>
+          <t>Mountain View Whisman</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>DOVE HILL ELEMENTARY</t>
+          <t>INDEPENDENT STUDY PROGRAM</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>43694356107593</t>
+          <t>43695910121830</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>0613140</t>
+          <t>0626280</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>09366</t>
+          <t>12629</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -28496,22 +28496,22 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>1460 Colt Way</t>
+          <t>460 Thompson Avenue</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>1460 Colt Way</t>
+          <t>460 Thompson Ave.</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>San Jose</t>
+          <t>Mountain View</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>95121-1900</t>
+          <t>94043-2740</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
@@ -28521,22 +28521,22 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>1460 Colt Way</t>
+          <t>460 Thompson Avenue</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>1460 Colt Way</t>
+          <t>460 Thompson Ave.</t>
         </is>
       </c>
       <c r="P120" t="inlineStr">
         <is>
-          <t>San Jose</t>
+          <t>Mountain View</t>
         </is>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>95121-1900</t>
+          <t>94043-2740</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
@@ -28566,14 +28566,14 @@
       </c>
       <c r="W120" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>Information Not Available</t>
         </is>
       </c>
       <c r="X120" s="2">
-        <v>29403</v>
+        <v>40413</v>
       </c>
       <c r="Y120" s="2">
-        <v>44013</v>
+        <v>44002</v>
       </c>
       <c r="Z120" t="inlineStr">
         <is>
@@ -28632,12 +28632,12 @@
       </c>
       <c r="AK120" t="inlineStr">
         <is>
-          <t>K-6</t>
+          <t>K-8</t>
         </is>
       </c>
       <c r="AL120" t="inlineStr">
         <is>
-          <t>K-6</t>
+          <t>K-4</t>
         </is>
       </c>
       <c r="AM120" t="inlineStr">
@@ -28662,12 +28662,12 @@
       </c>
       <c r="AQ120" t="inlineStr">
         <is>
-          <t>37.301101</t>
+          <t>37.409055</t>
         </is>
       </c>
       <c r="AR120" t="inlineStr">
         <is>
-          <t>-121.80983</t>
+          <t>-122.09838</t>
         </is>
       </c>
       <c r="AS120" t="inlineStr">
@@ -28687,13 +28687,13 @@
       </c>
       <c r="AV120" t="inlineStr">
         <is>
-          <t>44504</t>
+          <t>44167</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -28702,27 +28702,27 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Gilroy Unified</t>
+          <t>Oak Grove Elementary</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>ANTONIO DEL BUONO ELEMENTARY</t>
+          <t>MINER (GEORGE) ELEMENTARY</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>43694846116461</t>
+          <t>43696256048136</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>0615180</t>
+          <t>0627810</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>08355</t>
+          <t>04217</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -28732,22 +28732,22 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>9300 Wren Avenue</t>
+          <t>5629 Lean Avenue</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>9300 Wren Ave.</t>
+          <t>5629 Lean Ave.</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Gilroy</t>
+          <t>San Jose</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>95020-7636</t>
+          <t>95123-3620</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
@@ -28757,22 +28757,22 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>9300 Wren Avenue</t>
+          <t>5629 Lean Avenue</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>9300 Wren Ave.</t>
+          <t>5629 Lean Ave.</t>
         </is>
       </c>
       <c r="P121" t="inlineStr">
         <is>
-          <t>Gilroy</t>
+          <t>San Jose</t>
         </is>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>95020-7636</t>
+          <t>95123-3620</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
@@ -28802,14 +28802,14 @@
       </c>
       <c r="W121" t="inlineStr">
         <is>
-          <t>Information Not Available</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="X121" s="2">
-        <v>36375</v>
+        <v>29403</v>
       </c>
       <c r="Y121" s="2">
-        <v>43997</v>
+        <v>43281</v>
       </c>
       <c r="Z121" t="inlineStr">
         <is>
@@ -28828,12 +28828,12 @@
       </c>
       <c r="AC121" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="AD121" t="inlineStr">
         <is>
-          <t>Unified School District</t>
+          <t>Elementary School District</t>
         </is>
       </c>
       <c r="AE121" t="inlineStr">
@@ -28868,17 +28868,17 @@
       </c>
       <c r="AK121" t="inlineStr">
         <is>
-          <t>K-5</t>
+          <t>K-6</t>
         </is>
       </c>
       <c r="AL121" t="inlineStr">
         <is>
-          <t>K-5</t>
+          <t>K-6</t>
         </is>
       </c>
       <c r="AM121" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>C</t>
         </is>
       </c>
       <c r="AN121" t="inlineStr">
@@ -28898,12 +28898,12 @@
       </c>
       <c r="AQ121" t="inlineStr">
         <is>
-          <t>37.029814</t>
+          <t>37.250662</t>
         </is>
       </c>
       <c r="AR121" t="inlineStr">
         <is>
-          <t>-121.58746</t>
+          <t>-121.81756</t>
         </is>
       </c>
       <c r="AS121" t="inlineStr">
@@ -28923,13 +28923,13 @@
       </c>
       <c r="AV121" t="inlineStr">
         <is>
-          <t>44008</t>
+          <t>43284</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -28938,27 +28938,27 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Mountain View Whisman</t>
+          <t>Oak Grove Elementary</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>INDEPENDENT STUDY PROGRAM</t>
+          <t>GLIDER ELEMENTARY</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>43695910121830</t>
+          <t>43696256048144</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>0626280</t>
+          <t>0627810</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>12629</t>
+          <t>04214</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -28968,22 +28968,22 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>460 Thompson Avenue</t>
+          <t>511 Cozy Drive</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>460 Thompson Ave.</t>
+          <t>511 Cozy Dr.</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Mountain View</t>
+          <t>San Jose</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>94043-2740</t>
+          <t>95123-4811</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
@@ -28993,22 +28993,22 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>460 Thompson Avenue</t>
+          <t>511 Cozy Drive</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>460 Thompson Ave.</t>
+          <t>511 Cozy Dr.</t>
         </is>
       </c>
       <c r="P122" t="inlineStr">
         <is>
-          <t>Mountain View</t>
+          <t>San Jose</t>
         </is>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>94043-2740</t>
+          <t>95123-4811</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
@@ -29038,14 +29038,14 @@
       </c>
       <c r="W122" t="inlineStr">
         <is>
-          <t>Information Not Available</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="X122" s="2">
-        <v>40413</v>
+        <v>29403</v>
       </c>
       <c r="Y122" s="2">
-        <v>44002</v>
+        <v>43281</v>
       </c>
       <c r="Z122" t="inlineStr">
         <is>
@@ -29104,17 +29104,17 @@
       </c>
       <c r="AK122" t="inlineStr">
         <is>
-          <t>K-8</t>
+          <t>K-6</t>
         </is>
       </c>
       <c r="AL122" t="inlineStr">
         <is>
-          <t>K-4</t>
+          <t>K-6</t>
         </is>
       </c>
       <c r="AM122" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>C</t>
         </is>
       </c>
       <c r="AN122" t="inlineStr">
@@ -29134,12 +29134,12 @@
       </c>
       <c r="AQ122" t="inlineStr">
         <is>
-          <t>37.409055</t>
+          <t>37.232605</t>
         </is>
       </c>
       <c r="AR122" t="inlineStr">
         <is>
-          <t>-122.09838</t>
+          <t>-121.82340</t>
         </is>
       </c>
       <c r="AS122" t="inlineStr">
@@ -29159,13 +29159,13 @@
       </c>
       <c r="AV122" t="inlineStr">
         <is>
-          <t>44167</t>
+          <t>43284</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -29174,27 +29174,27 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Oak Grove Elementary</t>
+          <t>San Jose Unified</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>MINER (GEORGE) ELEMENTARY</t>
+          <t>MIDDLE COLLEGE HIGH</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>43696256048136</t>
+          <t>43696664330593</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>0627810</t>
+          <t>0634590</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>04217</t>
+          <t>08633</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -29204,12 +29204,12 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>5629 Lean Avenue</t>
+          <t>2100 Moorpark Avenue</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>5629 Lean Ave.</t>
+          <t>2100 Moorpark Ave.</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -29219,7 +29219,7 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>95123-3620</t>
+          <t>95128-2723</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
@@ -29229,12 +29229,12 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>5629 Lean Avenue</t>
+          <t>2100 Moorpark Avenue</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>5629 Lean Ave.</t>
+          <t>2100 Moorpark Ave.</t>
         </is>
       </c>
       <c r="P123" t="inlineStr">
@@ -29244,7 +29244,7 @@
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>95123-3620</t>
+          <t>95128-2723</t>
         </is>
       </c>
       <c r="R123" t="inlineStr">
@@ -29278,10 +29278,10 @@
         </is>
       </c>
       <c r="X123" s="2">
-        <v>29403</v>
+        <v>36549</v>
       </c>
       <c r="Y123" s="2">
-        <v>43281</v>
+        <v>45107</v>
       </c>
       <c r="Z123" t="inlineStr">
         <is>
@@ -29300,22 +29300,22 @@
       </c>
       <c r="AC123" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>54</t>
         </is>
       </c>
       <c r="AD123" t="inlineStr">
         <is>
-          <t>Elementary School District</t>
+          <t>Unified School District</t>
         </is>
       </c>
       <c r="AE123" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>66</t>
         </is>
       </c>
       <c r="AF123" t="inlineStr">
         <is>
-          <t>Elementary Schools (Public)</t>
+          <t>High Schools (Public)</t>
         </is>
       </c>
       <c r="AG123" t="inlineStr">
@@ -29330,22 +29330,22 @@
       </c>
       <c r="AI123" t="inlineStr">
         <is>
-          <t>ELEM</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="AJ123" t="inlineStr">
         <is>
-          <t>Elementary</t>
+          <t>High School</t>
         </is>
       </c>
       <c r="AK123" t="inlineStr">
         <is>
-          <t>K-6</t>
+          <t>11-12</t>
         </is>
       </c>
       <c r="AL123" t="inlineStr">
         <is>
-          <t>K-6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AM123" t="inlineStr">
@@ -29370,12 +29370,12 @@
       </c>
       <c r="AQ123" t="inlineStr">
         <is>
-          <t>37.250662</t>
+          <t>37.315671</t>
         </is>
       </c>
       <c r="AR123" t="inlineStr">
         <is>
-          <t>-121.81756</t>
+          <t>-121.93015</t>
         </is>
       </c>
       <c r="AS123" t="inlineStr">
@@ -29395,42 +29395,42 @@
       </c>
       <c r="AV123" t="inlineStr">
         <is>
-          <t>43284</t>
+          <t>45386</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>Santa Cruz</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Oak Grove Elementary</t>
+          <t>Soquel Union Elementary</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>GLIDER ELEMENTARY</t>
+          <t>OPAL CLIFFS</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>43696256048144</t>
+          <t>44698490126920</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>0627810</t>
+          <t>0637290</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>04214</t>
+          <t>13055</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -29440,22 +29440,22 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>511 Cozy Drive</t>
+          <t>4510 Jade Street</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>511 Cozy Dr.</t>
+          <t>4510 Jade St.</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>San Jose</t>
+          <t>Capitola</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>95123-4811</t>
+          <t>95010-3957</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
@@ -29465,22 +29465,22 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>511 Cozy Drive</t>
+          <t>4510 Jade Street</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>511 Cozy Dr.</t>
+          <t>4510 Jade St.</t>
         </is>
       </c>
       <c r="P124" t="inlineStr">
         <is>
-          <t>San Jose</t>
+          <t>Capitola</t>
         </is>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>95123-4811</t>
+          <t>95010-3957</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
@@ -29505,19 +29505,19 @@
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>jkiernan@suesd.org</t>
         </is>
       </c>
       <c r="W124" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>Information Not Available</t>
         </is>
       </c>
       <c r="X124" s="2">
-        <v>29403</v>
+        <v>41150</v>
       </c>
       <c r="Y124" s="2">
-        <v>43281</v>
+        <v>45436</v>
       </c>
       <c r="Z124" t="inlineStr">
         <is>
@@ -29566,27 +29566,27 @@
       </c>
       <c r="AI124" t="inlineStr">
         <is>
-          <t>ELEM</t>
+          <t>INTMIDJR</t>
         </is>
       </c>
       <c r="AJ124" t="inlineStr">
         <is>
-          <t>Elementary</t>
+          <t>Intermediate/Middle/Junior High</t>
         </is>
       </c>
       <c r="AK124" t="inlineStr">
         <is>
-          <t>K-6</t>
+          <t>P-8</t>
         </is>
       </c>
       <c r="AL124" t="inlineStr">
         <is>
-          <t>K-6</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="AM124" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>V</t>
         </is>
       </c>
       <c r="AN124" t="inlineStr">
@@ -29606,12 +29606,12 @@
       </c>
       <c r="AQ124" t="inlineStr">
         <is>
-          <t>37.232605</t>
+          <t>36.970263</t>
         </is>
       </c>
       <c r="AR124" t="inlineStr">
         <is>
-          <t>-121.82340</t>
+          <t>-121.95989</t>
         </is>
       </c>
       <c r="AS124" t="inlineStr">
@@ -29631,7 +29631,7 @@
       </c>
       <c r="AV124" t="inlineStr">
         <is>
-          <t>43284</t>
+          <t>45449</t>
         </is>
       </c>
     </row>
@@ -29641,32 +29641,32 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>Shasta</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>San Jose Unified</t>
+          <t>Mountain Union Elementary</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>MIDDLE COLLEGE HIGH</t>
+          <t>INDIAN SPRINGS ELEMENTARY</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>43696664330593</t>
+          <t>45737006050389</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>0634590</t>
+          <t>0627040</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>08633</t>
+          <t>02246</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -29676,22 +29676,22 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>2100 Moorpark Avenue</t>
+          <t>25299 Big Bend Road</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>2100 Moorpark Ave.</t>
+          <t>25299 Big Bend Rd.</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>San Jose</t>
+          <t>Big Bend</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>95128-2723</t>
+          <t>96011-0070</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
@@ -29701,22 +29701,22 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>2100 Moorpark Avenue</t>
+          <t>PO Box 70</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2100 Moorpark Ave.</t>
+          <t>PO Box 70</t>
         </is>
       </c>
       <c r="P125" t="inlineStr">
         <is>
-          <t>San Jose</t>
+          <t>Big Bend</t>
         </is>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>95128-2723</t>
+          <t>96011-0070</t>
         </is>
       </c>
       <c r="R125" t="inlineStr">
@@ -29741,19 +29741,19 @@
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>jstenlund@indianspringsesd.org</t>
         </is>
       </c>
       <c r="W125" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>Information Not Available</t>
         </is>
       </c>
       <c r="X125" s="2">
-        <v>36549</v>
+        <v>29403</v>
       </c>
       <c r="Y125" s="2">
-        <v>45107</v>
+        <v>44743</v>
       </c>
       <c r="Z125" t="inlineStr">
         <is>
@@ -29772,22 +29772,22 @@
       </c>
       <c r="AC125" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="AD125" t="inlineStr">
         <is>
-          <t>Unified School District</t>
+          <t>Elementary School District</t>
         </is>
       </c>
       <c r="AE125" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>61</t>
         </is>
       </c>
       <c r="AF125" t="inlineStr">
         <is>
-          <t>High Schools (Public)</t>
+          <t>Elemen Schools In 1 School Dist. (Public)</t>
         </is>
       </c>
       <c r="AG125" t="inlineStr">
@@ -29802,27 +29802,27 @@
       </c>
       <c r="AI125" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>ELEM</t>
         </is>
       </c>
       <c r="AJ125" t="inlineStr">
         <is>
-          <t>High School</t>
+          <t>Elementary</t>
         </is>
       </c>
       <c r="AK125" t="inlineStr">
         <is>
-          <t>11-12</t>
+          <t>K-8</t>
         </is>
       </c>
       <c r="AL125" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>K-8</t>
         </is>
       </c>
       <c r="AM125" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AN125" t="inlineStr">
@@ -29842,12 +29842,12 @@
       </c>
       <c r="AQ125" t="inlineStr">
         <is>
-          <t>37.315671</t>
+          <t>41.016000</t>
         </is>
       </c>
       <c r="AR125" t="inlineStr">
         <is>
-          <t>-121.93015</t>
+          <t>-121.90670</t>
         </is>
       </c>
       <c r="AS125" t="inlineStr">
@@ -29867,42 +29867,42 @@
       </c>
       <c r="AV125" t="inlineStr">
         <is>
-          <t>45386</t>
+          <t>44743</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>Solano</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Soquel Union Elementary</t>
+          <t>Vallejo City Unified</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>OPAL CLIFFS</t>
+          <t>BEVERLY HILLS ELEMENTARY</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>44698490126920</t>
+          <t>48705816051387</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>0637290</t>
+          <t>0640740</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>13055</t>
+          <t>06719</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -29912,22 +29912,22 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>4510 Jade Street</t>
+          <t>1450 Coronel Avenue</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>4510 Jade St.</t>
+          <t>1450 Coronel Ave.</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Capitola</t>
+          <t>Vallejo</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>95010-3957</t>
+          <t>94591-7921</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
@@ -29937,22 +29937,22 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>4510 Jade Street</t>
+          <t>1450 Coronel Avenue</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>4510 Jade St.</t>
+          <t>1450 Coronel Ave.</t>
         </is>
       </c>
       <c r="P126" t="inlineStr">
         <is>
-          <t>Capitola</t>
+          <t>Vallejo</t>
         </is>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>95010-3957</t>
+          <t>94591-7921</t>
         </is>
       </c>
       <c r="R126" t="inlineStr">
@@ -29977,19 +29977,19 @@
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>jkiernan@suesd.org</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="W126" t="inlineStr">
         <is>
-          <t>Information Not Available</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="X126" s="2">
-        <v>41150</v>
+        <v>29403</v>
       </c>
       <c r="Y126" s="2">
-        <v>45436</v>
+        <v>44012</v>
       </c>
       <c r="Z126" t="inlineStr">
         <is>
@@ -30008,12 +30008,12 @@
       </c>
       <c r="AC126" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>54</t>
         </is>
       </c>
       <c r="AD126" t="inlineStr">
         <is>
-          <t>Elementary School District</t>
+          <t>Unified School District</t>
         </is>
       </c>
       <c r="AE126" t="inlineStr">
@@ -30038,27 +30038,27 @@
       </c>
       <c r="AI126" t="inlineStr">
         <is>
-          <t>INTMIDJR</t>
+          <t>ELEM</t>
         </is>
       </c>
       <c r="AJ126" t="inlineStr">
         <is>
-          <t>Intermediate/Middle/Junior High</t>
+          <t>Elementary</t>
         </is>
       </c>
       <c r="AK126" t="inlineStr">
         <is>
-          <t>P-8</t>
+          <t>K-5</t>
         </is>
       </c>
       <c r="AL126" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>K-5</t>
         </is>
       </c>
       <c r="AM126" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AN126" t="inlineStr">
@@ -30078,12 +30078,12 @@
       </c>
       <c r="AQ126" t="inlineStr">
         <is>
-          <t>36.970263</t>
+          <t>38.087209</t>
         </is>
       </c>
       <c r="AR126" t="inlineStr">
         <is>
-          <t>-121.95989</t>
+          <t>-122.22469</t>
         </is>
       </c>
       <c r="AS126" t="inlineStr">
@@ -30103,42 +30103,42 @@
       </c>
       <c r="AV126" t="inlineStr">
         <is>
-          <t>45449</t>
+          <t>44018</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Shasta</t>
+          <t>Solano</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Mountain Union Elementary</t>
+          <t>Vallejo City Unified</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>INDIAN SPRINGS ELEMENTARY</t>
+          <t>SOLANO MIDDLE</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>45737006050389</t>
+          <t>48705816060198</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>0627040</t>
+          <t>0640740</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>02246</t>
+          <t>06735</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -30148,22 +30148,22 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>25299 Big Bend Road</t>
+          <t>1025 Corcoran Avenue</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>25299 Big Bend Rd.</t>
+          <t>1025 Corcoran Ave.</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Big Bend</t>
+          <t>Vallejo</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>96011-0070</t>
+          <t>94589-1844</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
@@ -30173,22 +30173,22 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>PO Box 70</t>
+          <t>1025 Corcoran Avenue</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>PO Box 70</t>
+          <t>1025 Corcoran Ave.</t>
         </is>
       </c>
       <c r="P127" t="inlineStr">
         <is>
-          <t>Big Bend</t>
+          <t>Vallejo</t>
         </is>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>96011-0070</t>
+          <t>94589-1844</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
@@ -30213,19 +30213,19 @@
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>jstenlund@indianspringsesd.org</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="W127" t="inlineStr">
         <is>
-          <t>Information Not Available</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="X127" s="2">
         <v>29403</v>
       </c>
       <c r="Y127" s="2">
-        <v>44743</v>
+        <v>44012</v>
       </c>
       <c r="Z127" t="inlineStr">
         <is>
@@ -30244,22 +30244,22 @@
       </c>
       <c r="AC127" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>54</t>
         </is>
       </c>
       <c r="AD127" t="inlineStr">
         <is>
-          <t>Elementary School District</t>
+          <t>Unified School District</t>
         </is>
       </c>
       <c r="AE127" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AF127" t="inlineStr">
         <is>
-          <t>Elemen Schools In 1 School Dist. (Public)</t>
+          <t>Intermediate/Middle Schools (Public)</t>
         </is>
       </c>
       <c r="AG127" t="inlineStr">
@@ -30274,22 +30274,22 @@
       </c>
       <c r="AI127" t="inlineStr">
         <is>
-          <t>ELEM</t>
+          <t>ELEMHIGH</t>
         </is>
       </c>
       <c r="AJ127" t="inlineStr">
         <is>
-          <t>Elementary</t>
+          <t>Elementary-High Combination</t>
         </is>
       </c>
       <c r="AK127" t="inlineStr">
         <is>
-          <t>K-8</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="AL127" t="inlineStr">
         <is>
-          <t>K-8</t>
+          <t>6-12</t>
         </is>
       </c>
       <c r="AM127" t="inlineStr">
@@ -30314,12 +30314,12 @@
       </c>
       <c r="AQ127" t="inlineStr">
         <is>
-          <t>41.016000</t>
+          <t>38.154130</t>
         </is>
       </c>
       <c r="AR127" t="inlineStr">
         <is>
-          <t>-121.90670</t>
+          <t>-122.24075</t>
         </is>
       </c>
       <c r="AS127" t="inlineStr">
@@ -30339,7 +30339,7 @@
       </c>
       <c r="AV127" t="inlineStr">
         <is>
-          <t>44743</t>
+          <t>44018</t>
         </is>
       </c>
     </row>
@@ -30359,12 +30359,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>BEVERLY HILLS ELEMENTARY</t>
+          <t>FRANKLIN MIDDLE</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>48705816051387</t>
+          <t>48705816062129</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -30374,7 +30374,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>06719</t>
+          <t>06726</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -30384,12 +30384,12 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>1450 Coronel Avenue</t>
+          <t>501 Starr Avenue</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>1450 Coronel Ave.</t>
+          <t>501 Starr Ave.</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -30399,7 +30399,7 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>94591-7921</t>
+          <t>94590-7154</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
@@ -30409,12 +30409,12 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>1450 Coronel Avenue</t>
+          <t>501 Starr Avenue</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>1450 Coronel Ave.</t>
+          <t>501 Starr Ave.</t>
         </is>
       </c>
       <c r="P128" t="inlineStr">
@@ -30424,7 +30424,7 @@
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>94591-7921</t>
+          <t>94590-7154</t>
         </is>
       </c>
       <c r="R128" t="inlineStr">
@@ -30490,12 +30490,12 @@
       </c>
       <c r="AE128" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AF128" t="inlineStr">
         <is>
-          <t>Elementary Schools (Public)</t>
+          <t>Intermediate/Middle Schools (Public)</t>
         </is>
       </c>
       <c r="AG128" t="inlineStr">
@@ -30510,22 +30510,22 @@
       </c>
       <c r="AI128" t="inlineStr">
         <is>
-          <t>ELEM</t>
+          <t>ELEMHIGH</t>
         </is>
       </c>
       <c r="AJ128" t="inlineStr">
         <is>
-          <t>Elementary</t>
+          <t>Elementary-High Combination</t>
         </is>
       </c>
       <c r="AK128" t="inlineStr">
         <is>
-          <t>K-5</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="AL128" t="inlineStr">
         <is>
-          <t>K-5</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="AM128" t="inlineStr">
@@ -30550,12 +30550,12 @@
       </c>
       <c r="AQ128" t="inlineStr">
         <is>
-          <t>38.087209</t>
+          <t>38.097933</t>
         </is>
       </c>
       <c r="AR128" t="inlineStr">
         <is>
-          <t>-122.22469</t>
+          <t>-122.23271</t>
         </is>
       </c>
       <c r="AS128" t="inlineStr">
@@ -30581,36 +30581,36 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Solano</t>
+          <t>Sonoma</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Vallejo City Unified</t>
+          <t>West Sonoma County Union High</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>SOLANO MIDDLE</t>
+          <t>EL MOLINO HIGH</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>48705816060198</t>
+          <t>49706074931507</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>0640740</t>
+          <t>0602670</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>06735</t>
+          <t>00194</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -30620,22 +30620,22 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>1025 Corcoran Avenue</t>
+          <t>7050 Covey Road</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>1025 Corcoran Ave.</t>
+          <t>7050 Covey Rd.</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Vallejo</t>
+          <t>Forestville</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>94589-1844</t>
+          <t>95436-9642</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
@@ -30645,22 +30645,22 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>1025 Corcoran Avenue</t>
+          <t>7050 Covey Road</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>1025 Corcoran Ave.</t>
+          <t>7050 Covey Rd.</t>
         </is>
       </c>
       <c r="P129" t="inlineStr">
         <is>
-          <t>Vallejo</t>
+          <t>Forestville</t>
         </is>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>94589-1844</t>
+          <t>95436-9642</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
@@ -30697,7 +30697,7 @@
         <v>29403</v>
       </c>
       <c r="Y129" s="2">
-        <v>44012</v>
+        <v>44377</v>
       </c>
       <c r="Z129" t="inlineStr">
         <is>
@@ -30716,22 +30716,22 @@
       </c>
       <c r="AC129" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>56</t>
         </is>
       </c>
       <c r="AD129" t="inlineStr">
         <is>
-          <t>Unified School District</t>
+          <t>High School District</t>
         </is>
       </c>
       <c r="AE129" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>66</t>
         </is>
       </c>
       <c r="AF129" t="inlineStr">
         <is>
-          <t>Intermediate/Middle Schools (Public)</t>
+          <t>High Schools (Public)</t>
         </is>
       </c>
       <c r="AG129" t="inlineStr">
@@ -30746,22 +30746,22 @@
       </c>
       <c r="AI129" t="inlineStr">
         <is>
-          <t>ELEMHIGH</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="AJ129" t="inlineStr">
         <is>
-          <t>Elementary-High Combination</t>
+          <t>High School</t>
         </is>
       </c>
       <c r="AK129" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>9-12</t>
         </is>
       </c>
       <c r="AL129" t="inlineStr">
         <is>
-          <t>6-12</t>
+          <t>9-12</t>
         </is>
       </c>
       <c r="AM129" t="inlineStr">
@@ -30786,12 +30786,12 @@
       </c>
       <c r="AQ129" t="inlineStr">
         <is>
-          <t>38.154130</t>
+          <t>38.482108</t>
         </is>
       </c>
       <c r="AR129" t="inlineStr">
         <is>
-          <t>-122.24075</t>
+          <t>-122.89018</t>
         </is>
       </c>
       <c r="AS129" t="inlineStr">
@@ -30811,42 +30811,42 @@
       </c>
       <c r="AV129" t="inlineStr">
         <is>
-          <t>44018</t>
+          <t>44378</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Solano</t>
+          <t>Sonoma</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Vallejo City Unified</t>
+          <t>Santa Rosa High</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>FRANKLIN MIDDLE</t>
+          <t>LAWRENCE COOK MIDDLE</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>48705816062129</t>
+          <t>49709206060255</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>0640740</t>
+          <t>0635830</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>06726</t>
+          <t>06124</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -30856,22 +30856,22 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>501 Starr Avenue</t>
+          <t>2480 Sebastopol Road</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>501 Starr Ave.</t>
+          <t>2480 Sebastopol Rd.</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Vallejo</t>
+          <t>Santa Rosa</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>94590-7154</t>
+          <t>95407-6728</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
@@ -30881,22 +30881,22 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>501 Starr Avenue</t>
+          <t>2480 Sebastopol Road</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>501 Starr Ave.</t>
+          <t>2480 Sebastopol Rd.</t>
         </is>
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>Vallejo</t>
+          <t>Santa Rosa</t>
         </is>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>94590-7154</t>
+          <t>95407-6728</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
@@ -30933,7 +30933,7 @@
         <v>29403</v>
       </c>
       <c r="Y130" s="2">
-        <v>44012</v>
+        <v>44351</v>
       </c>
       <c r="Z130" t="inlineStr">
         <is>
@@ -30952,12 +30952,12 @@
       </c>
       <c r="AC130" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>56</t>
         </is>
       </c>
       <c r="AD130" t="inlineStr">
         <is>
-          <t>Unified School District</t>
+          <t>High School District</t>
         </is>
       </c>
       <c r="AE130" t="inlineStr">
@@ -30982,22 +30982,22 @@
       </c>
       <c r="AI130" t="inlineStr">
         <is>
-          <t>ELEMHIGH</t>
+          <t>INTMIDJR</t>
         </is>
       </c>
       <c r="AJ130" t="inlineStr">
         <is>
-          <t>Elementary-High Combination</t>
+          <t>Intermediate/Middle/Junior High</t>
         </is>
       </c>
       <c r="AK130" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="AL130" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="AM130" t="inlineStr">
@@ -31022,12 +31022,12 @@
       </c>
       <c r="AQ130" t="inlineStr">
         <is>
-          <t>38.097933</t>
+          <t>38.426426</t>
         </is>
       </c>
       <c r="AR130" t="inlineStr">
         <is>
-          <t>-122.23271</t>
+          <t>-122.74641</t>
         </is>
       </c>
       <c r="AS130" t="inlineStr">
@@ -31047,13 +31047,13 @@
       </c>
       <c r="AV130" t="inlineStr">
         <is>
-          <t>44018</t>
+          <t>44378</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -31062,27 +31062,27 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>West Sonoma County Union High</t>
+          <t>Sonoma Valley Unified</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>EL MOLINO HIGH</t>
+          <t>DUNBAR ELEMENTARY</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>49706074931507</t>
+          <t>49709536052252</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>0602670</t>
+          <t>0637200</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>00194</t>
+          <t>06299</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -31092,22 +31092,22 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>7050 Covey Road</t>
+          <t>11700 Dunbar Road</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>7050 Covey Rd.</t>
+          <t>11700 Dunbar Rd.</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Forestville</t>
+          <t>Glen Ellen</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>95436-9642</t>
+          <t>95442-9611</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
@@ -31117,22 +31117,22 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>7050 Covey Road</t>
+          <t>11700 Dunbar Road</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>7050 Covey Rd.</t>
+          <t>11700 Dunbar Rd.</t>
         </is>
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>Forestville</t>
+          <t>Glen Ellen</t>
         </is>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>95436-9642</t>
+          <t>95442-9611</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
@@ -31169,7 +31169,7 @@
         <v>29403</v>
       </c>
       <c r="Y131" s="2">
-        <v>44377</v>
+        <v>45107</v>
       </c>
       <c r="Z131" t="inlineStr">
         <is>
@@ -31188,22 +31188,22 @@
       </c>
       <c r="AC131" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>54</t>
         </is>
       </c>
       <c r="AD131" t="inlineStr">
         <is>
-          <t>High School District</t>
+          <t>Unified School District</t>
         </is>
       </c>
       <c r="AE131" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AF131" t="inlineStr">
         <is>
-          <t>High Schools (Public)</t>
+          <t>Elementary Schools (Public)</t>
         </is>
       </c>
       <c r="AG131" t="inlineStr">
@@ -31218,22 +31218,22 @@
       </c>
       <c r="AI131" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>ELEM</t>
         </is>
       </c>
       <c r="AJ131" t="inlineStr">
         <is>
-          <t>High School</t>
+          <t>Elementary</t>
         </is>
       </c>
       <c r="AK131" t="inlineStr">
         <is>
-          <t>9-12</t>
+          <t>K-5</t>
         </is>
       </c>
       <c r="AL131" t="inlineStr">
         <is>
-          <t>9-12</t>
+          <t>K-5</t>
         </is>
       </c>
       <c r="AM131" t="inlineStr">
@@ -31258,12 +31258,12 @@
       </c>
       <c r="AQ131" t="inlineStr">
         <is>
-          <t>38.482108</t>
+          <t>38.382365</t>
         </is>
       </c>
       <c r="AR131" t="inlineStr">
         <is>
-          <t>-122.89018</t>
+          <t>-122.52092</t>
         </is>
       </c>
       <c r="AS131" t="inlineStr">
@@ -31283,13 +31283,13 @@
       </c>
       <c r="AV131" t="inlineStr">
         <is>
-          <t>44378</t>
+          <t>45139</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -31298,27 +31298,27 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Santa Rosa High</t>
+          <t>Cotati-Rohnert Park Unified</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>LAWRENCE COOK MIDDLE</t>
+          <t>WALDO ROHNERT INTERMEDIATE</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>49709206060255</t>
+          <t>49738826051692</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>0635830</t>
+          <t>0609940</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>06124</t>
+          <t>01084</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -31328,22 +31328,22 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>2480 Sebastopol Road</t>
+          <t>550 Bonnie Avenue</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>2480 Sebastopol Rd.</t>
+          <t>550 Bonnie Ave.</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Santa Rosa</t>
+          <t>Rohnert Park</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>95407-6728</t>
+          <t>94928-3897</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
@@ -31353,22 +31353,22 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>2480 Sebastopol Road</t>
+          <t>550 Bonnie Avenue</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2480 Sebastopol Rd.</t>
+          <t>550 Bonnie Ave.</t>
         </is>
       </c>
       <c r="P132" t="inlineStr">
         <is>
-          <t>Santa Rosa</t>
+          <t>Rohnert Park</t>
         </is>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>95407-6728</t>
+          <t>94928-3897</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
@@ -31405,7 +31405,7 @@
         <v>29403</v>
       </c>
       <c r="Y132" s="2">
-        <v>44351</v>
+        <v>43252</v>
       </c>
       <c r="Z132" t="inlineStr">
         <is>
@@ -31424,22 +31424,22 @@
       </c>
       <c r="AC132" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>54</t>
         </is>
       </c>
       <c r="AD132" t="inlineStr">
         <is>
-          <t>High School District</t>
+          <t>Unified School District</t>
         </is>
       </c>
       <c r="AE132" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AF132" t="inlineStr">
         <is>
-          <t>Intermediate/Middle Schools (Public)</t>
+          <t>Elementary Schools (Public)</t>
         </is>
       </c>
       <c r="AG132" t="inlineStr">
@@ -31454,22 +31454,22 @@
       </c>
       <c r="AI132" t="inlineStr">
         <is>
-          <t>INTMIDJR</t>
+          <t>ELEM</t>
         </is>
       </c>
       <c r="AJ132" t="inlineStr">
         <is>
-          <t>Intermediate/Middle/Junior High</t>
+          <t>Elementary</t>
         </is>
       </c>
       <c r="AK132" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="AL132" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="AM132" t="inlineStr">
@@ -31494,12 +31494,12 @@
       </c>
       <c r="AQ132" t="inlineStr">
         <is>
-          <t>38.426426</t>
+          <t>38.333991</t>
         </is>
       </c>
       <c r="AR132" t="inlineStr">
         <is>
-          <t>-122.74641</t>
+          <t>-122.69903</t>
         </is>
       </c>
       <c r="AS132" t="inlineStr">
@@ -31519,13 +31519,13 @@
       </c>
       <c r="AV132" t="inlineStr">
         <is>
-          <t>44378</t>
+          <t>43265</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -31534,27 +31534,27 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Sonoma Valley Unified</t>
+          <t>Windsor Unified</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>DUNBAR ELEMENTARY</t>
+          <t>WINDSOR CREEK ELEMENTARY</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>49709536052252</t>
+          <t>49753586116024</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>0637200</t>
+          <t>0600034</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>06299</t>
+          <t>08407</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -31564,22 +31564,22 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>11700 Dunbar Road</t>
+          <t>8955 Conde Lane</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>11700 Dunbar Rd.</t>
+          <t>8955 Conde Ln.</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Glen Ellen</t>
+          <t>Windsor</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>95442-9611</t>
+          <t>95492-8812</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
@@ -31589,22 +31589,22 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>11700 Dunbar Road</t>
+          <t>8955 Conde Lane</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>11700 Dunbar Rd.</t>
+          <t>8955 Conde Ln.</t>
         </is>
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>Glen Ellen</t>
+          <t>Windsor</t>
         </is>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>95442-9611</t>
+          <t>95492-8812</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
@@ -31638,10 +31638,10 @@
         </is>
       </c>
       <c r="X133" s="2">
-        <v>29403</v>
+        <v>36402</v>
       </c>
       <c r="Y133" s="2">
-        <v>45107</v>
+        <v>43616</v>
       </c>
       <c r="Z133" t="inlineStr">
         <is>
@@ -31700,12 +31700,12 @@
       </c>
       <c r="AK133" t="inlineStr">
         <is>
-          <t>K-5</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="AL133" t="inlineStr">
         <is>
-          <t>K-5</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="AM133" t="inlineStr">
@@ -31730,12 +31730,12 @@
       </c>
       <c r="AQ133" t="inlineStr">
         <is>
-          <t>38.382365</t>
+          <t>38.546543</t>
         </is>
       </c>
       <c r="AR133" t="inlineStr">
         <is>
-          <t>-122.52092</t>
+          <t>-122.81009</t>
         </is>
       </c>
       <c r="AS133" t="inlineStr">
@@ -31755,42 +31755,42 @@
       </c>
       <c r="AV133" t="inlineStr">
         <is>
-          <t>45139</t>
+          <t>43641</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Sonoma</t>
+          <t>Sutter</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Cotati-Rohnert Park Unified</t>
+          <t>Yuba City Unified</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>WALDO ROHNERT INTERMEDIATE</t>
+          <t>CENTRAL GAITHER ELEMENTARY</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>49738826051692</t>
+          <t>51714646053375</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>0609940</t>
+          <t>0643470</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>01084</t>
+          <t>07032</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -31800,22 +31800,22 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>550 Bonnie Avenue</t>
+          <t>8403 Bailey Road</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>550 Bonnie Ave.</t>
+          <t>8403 Bailey Rd.</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>Rohnert Park</t>
+          <t>Yuba City</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>94928-3897</t>
+          <t>95993-9524</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
@@ -31825,22 +31825,22 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>550 Bonnie Avenue</t>
+          <t>8403 Bailey Road</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>550 Bonnie Ave.</t>
+          <t>8403 Bailey Rd.</t>
         </is>
       </c>
       <c r="P134" t="inlineStr">
         <is>
-          <t>Rohnert Park</t>
+          <t>Yuba City</t>
         </is>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>94928-3897</t>
+          <t>95993-9524</t>
         </is>
       </c>
       <c r="R134" t="inlineStr">
@@ -31865,19 +31865,19 @@
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>andym@ycusd.org</t>
         </is>
       </c>
       <c r="W134" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>Information Not Available</t>
         </is>
       </c>
       <c r="X134" s="2">
-        <v>29403</v>
+        <v>7488</v>
       </c>
       <c r="Y134" s="2">
-        <v>43252</v>
+        <v>43987</v>
       </c>
       <c r="Z134" t="inlineStr">
         <is>
@@ -31936,12 +31936,12 @@
       </c>
       <c r="AK134" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>K-8</t>
         </is>
       </c>
       <c r="AL134" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>K-5</t>
         </is>
       </c>
       <c r="AM134" t="inlineStr">
@@ -31966,12 +31966,12 @@
       </c>
       <c r="AQ134" t="inlineStr">
         <is>
-          <t>38.333991</t>
+          <t>39.004205</t>
         </is>
       </c>
       <c r="AR134" t="inlineStr">
         <is>
-          <t>-122.69903</t>
+          <t>-121.66265</t>
         </is>
       </c>
       <c r="AS134" t="inlineStr">
@@ -31991,42 +31991,42 @@
       </c>
       <c r="AV134" t="inlineStr">
         <is>
-          <t>43265</t>
+          <t>44035</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Sonoma</t>
+          <t>Tehama</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Windsor Unified</t>
+          <t>Antelope Elementary</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>WINDSOR CREEK ELEMENTARY</t>
+          <t>MANTON ELEMENTARY</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>49753586116024</t>
+          <t>52714726053599</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>0600034</t>
+          <t>0602760</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>08407</t>
+          <t>03591</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -32036,22 +32036,22 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>8955 Conde Lane</t>
+          <t>31345 Forward Road</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>8955 Conde Ln.</t>
+          <t>31345 Forward Rd.</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Windsor</t>
+          <t>Manton</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>95492-8812</t>
+          <t>96059-0410</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
@@ -32061,22 +32061,22 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>8955 Conde Lane</t>
+          <t>PO Box 410</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>8955 Conde Ln.</t>
+          <t>PO Box 410</t>
         </is>
       </c>
       <c r="P135" t="inlineStr">
         <is>
-          <t>Windsor</t>
+          <t>Manton</t>
         </is>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>95492-8812</t>
+          <t>96059-0410</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
@@ -32110,10 +32110,10 @@
         </is>
       </c>
       <c r="X135" s="2">
-        <v>36402</v>
+        <v>29403</v>
       </c>
       <c r="Y135" s="2">
-        <v>43616</v>
+        <v>43281</v>
       </c>
       <c r="Z135" t="inlineStr">
         <is>
@@ -32132,12 +32132,12 @@
       </c>
       <c r="AC135" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="AD135" t="inlineStr">
         <is>
-          <t>Unified School District</t>
+          <t>Elementary School District</t>
         </is>
       </c>
       <c r="AE135" t="inlineStr">
@@ -32172,12 +32172,12 @@
       </c>
       <c r="AK135" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>K-5</t>
         </is>
       </c>
       <c r="AL135" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>K-5</t>
         </is>
       </c>
       <c r="AM135" t="inlineStr">
@@ -32202,12 +32202,12 @@
       </c>
       <c r="AQ135" t="inlineStr">
         <is>
-          <t>38.546543</t>
+          <t>40.420732</t>
         </is>
       </c>
       <c r="AR135" t="inlineStr">
         <is>
-          <t>-122.81009</t>
+          <t>-121.81178</t>
         </is>
       </c>
       <c r="AS135" t="inlineStr">
@@ -32227,42 +32227,42 @@
       </c>
       <c r="AV135" t="inlineStr">
         <is>
-          <t>43641</t>
+          <t>43313</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Sutter</t>
+          <t>Tehama</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Yuba City Unified</t>
+          <t>Flournoy Union Elementary</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>CENTRAL GAITHER ELEMENTARY</t>
+          <t>ELKINS ELEMENTARY</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>51714646053375</t>
+          <t>52715306053508</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>0643470</t>
+          <t>0613860</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>07032</t>
+          <t>01416</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -32272,22 +32272,22 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>8403 Bailey Road</t>
+          <t>2960 Elkins Road</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>8403 Bailey Rd.</t>
+          <t>2960 Elkins Rd.</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Yuba City</t>
+          <t>Paskenta</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>95993-9524</t>
+          <t>96074-0407</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
@@ -32297,22 +32297,22 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>8403 Bailey Road</t>
+          <t>PO Box 407</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>8403 Bailey Rd.</t>
+          <t>PO Box 407</t>
         </is>
       </c>
       <c r="P136" t="inlineStr">
         <is>
-          <t>Yuba City</t>
+          <t>Paskenta</t>
         </is>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>95993-9524</t>
+          <t>96074-0407</t>
         </is>
       </c>
       <c r="R136" t="inlineStr">
@@ -32337,19 +32337,19 @@
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>andym@ycusd.org</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="W136" t="inlineStr">
         <is>
-          <t>Information Not Available</t>
+          <t>No Data</t>
         </is>
       </c>
       <c r="X136" s="2">
-        <v>7488</v>
+        <v>29403</v>
       </c>
       <c r="Y136" s="2">
-        <v>43987</v>
+        <v>44013</v>
       </c>
       <c r="Z136" t="inlineStr">
         <is>
@@ -32368,22 +32368,22 @@
       </c>
       <c r="AC136" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="AD136" t="inlineStr">
         <is>
-          <t>Unified School District</t>
+          <t>Elementary School District</t>
         </is>
       </c>
       <c r="AE136" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>61</t>
         </is>
       </c>
       <c r="AF136" t="inlineStr">
         <is>
-          <t>Elementary Schools (Public)</t>
+          <t>Elemen Schools In 1 School Dist. (Public)</t>
         </is>
       </c>
       <c r="AG136" t="inlineStr">
@@ -32413,7 +32413,7 @@
       </c>
       <c r="AL136" t="inlineStr">
         <is>
-          <t>K-5</t>
+          <t>K-7</t>
         </is>
       </c>
       <c r="AM136" t="inlineStr">
@@ -32438,12 +32438,12 @@
       </c>
       <c r="AQ136" t="inlineStr">
         <is>
-          <t>39.004205</t>
+          <t>39.885800</t>
         </is>
       </c>
       <c r="AR136" t="inlineStr">
         <is>
-          <t>-121.66265</t>
+          <t>-122.55350</t>
         </is>
       </c>
       <c r="AS136" t="inlineStr">
@@ -32463,42 +32463,42 @@
       </c>
       <c r="AV136" t="inlineStr">
         <is>
-          <t>44035</t>
+          <t>44013</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Tehama</t>
+          <t>Trinity</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Antelope Elementary</t>
+          <t>Trinity Alps Unified</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>MANTON ELEMENTARY</t>
+          <t>COX BAR ELEMENTARY</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>52714726053599</t>
+          <t>53765136053714</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>0602760</t>
+          <t>0601331</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>03591</t>
+          <t>01109</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -32508,22 +32508,22 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>31345 Forward Road</t>
+          <t>304 Corral Bottom Road</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>31345 Forward Rd.</t>
+          <t>304 Corral Bottom Rd.</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Manton</t>
+          <t>Big Bar</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>96059-0410</t>
+          <t>96010-0529</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
@@ -32533,22 +32533,22 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>PO Box 410</t>
+          <t>PO Box 1227</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>PO Box 410</t>
+          <t>PO Box 1227</t>
         </is>
       </c>
       <c r="P137" t="inlineStr">
         <is>
-          <t>Manton</t>
+          <t>Weaverville</t>
         </is>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>96059-0410</t>
+          <t>96093</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
@@ -32585,7 +32585,7 @@
         <v>29403</v>
       </c>
       <c r="Y137" s="2">
-        <v>43281</v>
+        <v>43993</v>
       </c>
       <c r="Z137" t="inlineStr">
         <is>
@@ -32604,12 +32604,12 @@
       </c>
       <c r="AC137" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>54</t>
         </is>
       </c>
       <c r="AD137" t="inlineStr">
         <is>
-          <t>Elementary School District</t>
+          <t>Unified School District</t>
         </is>
       </c>
       <c r="AE137" t="inlineStr">
@@ -32634,22 +32634,22 @@
       </c>
       <c r="AI137" t="inlineStr">
         <is>
-          <t>ELEM</t>
+          <t>INTMIDJR</t>
         </is>
       </c>
       <c r="AJ137" t="inlineStr">
         <is>
-          <t>Elementary</t>
+          <t>Intermediate/Middle/Junior High</t>
         </is>
       </c>
       <c r="AK137" t="inlineStr">
         <is>
-          <t>K-5</t>
+          <t>K-8</t>
         </is>
       </c>
       <c r="AL137" t="inlineStr">
         <is>
-          <t>K-5</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="AM137" t="inlineStr">
@@ -32674,12 +32674,12 @@
       </c>
       <c r="AQ137" t="inlineStr">
         <is>
-          <t>40.420732</t>
+          <t>40.737100</t>
         </is>
       </c>
       <c r="AR137" t="inlineStr">
         <is>
-          <t>-121.81178</t>
+          <t>-123.25440</t>
         </is>
       </c>
       <c r="AS137" t="inlineStr">
@@ -32699,42 +32699,42 @@
       </c>
       <c r="AV137" t="inlineStr">
         <is>
-          <t>43313</t>
+          <t>44795</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Tehama</t>
+          <t>Ventura</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Flournoy Union Elementary</t>
+          <t>Ojai Unified</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>ELKINS ELEMENTARY</t>
+          <t>SAN ANTONIO ELEMENTARY</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>52715306053508</t>
+          <t>56725206055222</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>0613860</t>
+          <t>0628270</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>01416</t>
+          <t>04380</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -32744,22 +32744,22 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>2960 Elkins Road</t>
+          <t>650 Carne Road</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>2960 Elkins Rd.</t>
+          <t>650 Carne Rd.</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>Paskenta</t>
+          <t>Ojai</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>96074-0407</t>
+          <t>93023-9375</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
@@ -32769,22 +32769,22 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>PO Box 407</t>
+          <t>650 Carne Road</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>PO Box 407</t>
+          <t>650 Carne Rd.</t>
         </is>
       </c>
       <c r="P138" t="inlineStr">
         <is>
-          <t>Paskenta</t>
+          <t>Ojai</t>
         </is>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>96074-0407</t>
+          <t>93023-9375</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
@@ -32814,14 +32814,14 @@
       </c>
       <c r="W138" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>Information Not Available</t>
         </is>
       </c>
       <c r="X138" s="2">
         <v>29403</v>
       </c>
       <c r="Y138" s="2">
-        <v>44013</v>
+        <v>45107</v>
       </c>
       <c r="Z138" t="inlineStr">
         <is>
@@ -32840,22 +32840,22 @@
       </c>
       <c r="AC138" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>54</t>
         </is>
       </c>
       <c r="AD138" t="inlineStr">
         <is>
-          <t>Elementary School District</t>
+          <t>Unified School District</t>
         </is>
       </c>
       <c r="AE138" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AF138" t="inlineStr">
         <is>
-          <t>Elemen Schools In 1 School Dist. (Public)</t>
+          <t>Elementary Schools (Public)</t>
         </is>
       </c>
       <c r="AG138" t="inlineStr">
@@ -32910,12 +32910,12 @@
       </c>
       <c r="AQ138" t="inlineStr">
         <is>
-          <t>39.885800</t>
+          <t>34.455411</t>
         </is>
       </c>
       <c r="AR138" t="inlineStr">
         <is>
-          <t>-122.55350</t>
+          <t>-119.20614</t>
         </is>
       </c>
       <c r="AS138" t="inlineStr">
@@ -32935,42 +32935,42 @@
       </c>
       <c r="AV138" t="inlineStr">
         <is>
-          <t>44013</t>
+          <t>45125</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Trinity</t>
+          <t>Ventura</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Trinity Alps Unified</t>
+          <t>Ojai Unified</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>COX BAR ELEMENTARY</t>
+          <t>SUMMIT ELEMENTARY</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>53765136053714</t>
+          <t>56725206055230</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>0601331</t>
+          <t>0628270</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>01109</t>
+          <t>04381</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -32980,22 +32980,22 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>304 Corral Bottom Road</t>
+          <t>12525 Ojai/Santa Paula Road</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>304 Corral Bottom Rd.</t>
+          <t>12525 Ojai/Santa Paula Rd.</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Big Bar</t>
+          <t>Ojai</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>96010-0529</t>
+          <t>93023-9396</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
@@ -33005,22 +33005,22 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>PO Box 1227</t>
+          <t>12525 Ojai/Santa Paula Road</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>PO Box 1227</t>
+          <t>12525 Ojai/Santa Paula Rd.</t>
         </is>
       </c>
       <c r="P139" t="inlineStr">
         <is>
-          <t>Weaverville</t>
+          <t>Ojai</t>
         </is>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>96093</t>
+          <t>93023-9396</t>
         </is>
       </c>
       <c r="R139" t="inlineStr">
@@ -33057,7 +33057,7 @@
         <v>29403</v>
       </c>
       <c r="Y139" s="2">
-        <v>43993</v>
+        <v>43281</v>
       </c>
       <c r="Z139" t="inlineStr">
         <is>
@@ -33106,22 +33106,22 @@
       </c>
       <c r="AI139" t="inlineStr">
         <is>
-          <t>INTMIDJR</t>
+          <t>ELEM</t>
         </is>
       </c>
       <c r="AJ139" t="inlineStr">
         <is>
-          <t>Intermediate/Middle/Junior High</t>
+          <t>Elementary</t>
         </is>
       </c>
       <c r="AK139" t="inlineStr">
         <is>
-          <t>K-8</t>
+          <t>K-6</t>
         </is>
       </c>
       <c r="AL139" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>K-6</t>
         </is>
       </c>
       <c r="AM139" t="inlineStr">
@@ -33146,12 +33146,12 @@
       </c>
       <c r="AQ139" t="inlineStr">
         <is>
-          <t>40.737100</t>
+          <t>34.436477</t>
         </is>
       </c>
       <c r="AR139" t="inlineStr">
         <is>
-          <t>-123.25440</t>
+          <t>-119.13819</t>
         </is>
       </c>
       <c r="AS139" t="inlineStr">
@@ -33170,478 +33170,6 @@
         </is>
       </c>
       <c r="AV139" t="inlineStr">
-        <is>
-          <t>44795</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140">
-        <v>2023</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Ventura</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Ojai Unified</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>SAN ANTONIO ELEMENTARY</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>56725206055222</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>0628270</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>04380</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>650 Carne Road</t>
-        </is>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>650 Carne Rd.</t>
-        </is>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>Ojai</t>
-        </is>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>93023-9375</t>
-        </is>
-      </c>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="N140" t="inlineStr">
-        <is>
-          <t>650 Carne Road</t>
-        </is>
-      </c>
-      <c r="O140" t="inlineStr">
-        <is>
-          <t>650 Carne Rd.</t>
-        </is>
-      </c>
-      <c r="P140" t="inlineStr">
-        <is>
-          <t>Ojai</t>
-        </is>
-      </c>
-      <c r="Q140" t="inlineStr">
-        <is>
-          <t>93023-9375</t>
-        </is>
-      </c>
-      <c r="R140" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="S140" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="T140" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="U140" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="V140" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="W140" t="inlineStr">
-        <is>
-          <t>Information Not Available</t>
-        </is>
-      </c>
-      <c r="X140" s="2">
-        <v>29403</v>
-      </c>
-      <c r="Y140" s="2">
-        <v>45107</v>
-      </c>
-      <c r="Z140" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AA140" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AB140" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AC140" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="AD140" t="inlineStr">
-        <is>
-          <t>Unified School District</t>
-        </is>
-      </c>
-      <c r="AE140" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="AF140" t="inlineStr">
-        <is>
-          <t>Elementary Schools (Public)</t>
-        </is>
-      </c>
-      <c r="AG140" t="inlineStr">
-        <is>
-          <t>TRAD</t>
-        </is>
-      </c>
-      <c r="AH140" t="inlineStr">
-        <is>
-          <t>Traditional</t>
-        </is>
-      </c>
-      <c r="AI140" t="inlineStr">
-        <is>
-          <t>ELEM</t>
-        </is>
-      </c>
-      <c r="AJ140" t="inlineStr">
-        <is>
-          <t>Elementary</t>
-        </is>
-      </c>
-      <c r="AK140" t="inlineStr">
-        <is>
-          <t>K-8</t>
-        </is>
-      </c>
-      <c r="AL140" t="inlineStr">
-        <is>
-          <t>K-7</t>
-        </is>
-      </c>
-      <c r="AM140" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AN140" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AO140" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AP140" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AQ140" t="inlineStr">
-        <is>
-          <t>34.455411</t>
-        </is>
-      </c>
-      <c r="AR140" t="inlineStr">
-        <is>
-          <t>-119.20614</t>
-        </is>
-      </c>
-      <c r="AS140" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AT140" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AU140" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AV140" t="inlineStr">
-        <is>
-          <t>45125</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141">
-        <v>2018</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Ventura</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Ojai Unified</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>SUMMIT ELEMENTARY</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>56725206055230</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>0628270</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>04381</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>12525 Ojai/Santa Paula Road</t>
-        </is>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>12525 Ojai/Santa Paula Rd.</t>
-        </is>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>Ojai</t>
-        </is>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>93023-9396</t>
-        </is>
-      </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="N141" t="inlineStr">
-        <is>
-          <t>12525 Ojai/Santa Paula Road</t>
-        </is>
-      </c>
-      <c r="O141" t="inlineStr">
-        <is>
-          <t>12525 Ojai/Santa Paula Rd.</t>
-        </is>
-      </c>
-      <c r="P141" t="inlineStr">
-        <is>
-          <t>Ojai</t>
-        </is>
-      </c>
-      <c r="Q141" t="inlineStr">
-        <is>
-          <t>93023-9396</t>
-        </is>
-      </c>
-      <c r="R141" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="S141" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="T141" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="U141" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="V141" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="W141" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="X141" s="2">
-        <v>29403</v>
-      </c>
-      <c r="Y141" s="2">
-        <v>43281</v>
-      </c>
-      <c r="Z141" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AA141" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AB141" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AC141" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="AD141" t="inlineStr">
-        <is>
-          <t>Unified School District</t>
-        </is>
-      </c>
-      <c r="AE141" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="AF141" t="inlineStr">
-        <is>
-          <t>Elementary Schools (Public)</t>
-        </is>
-      </c>
-      <c r="AG141" t="inlineStr">
-        <is>
-          <t>TRAD</t>
-        </is>
-      </c>
-      <c r="AH141" t="inlineStr">
-        <is>
-          <t>Traditional</t>
-        </is>
-      </c>
-      <c r="AI141" t="inlineStr">
-        <is>
-          <t>ELEM</t>
-        </is>
-      </c>
-      <c r="AJ141" t="inlineStr">
-        <is>
-          <t>Elementary</t>
-        </is>
-      </c>
-      <c r="AK141" t="inlineStr">
-        <is>
-          <t>K-6</t>
-        </is>
-      </c>
-      <c r="AL141" t="inlineStr">
-        <is>
-          <t>K-6</t>
-        </is>
-      </c>
-      <c r="AM141" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AN141" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AO141" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AP141" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AQ141" t="inlineStr">
-        <is>
-          <t>34.436477</t>
-        </is>
-      </c>
-      <c r="AR141" t="inlineStr">
-        <is>
-          <t>-119.13819</t>
-        </is>
-      </c>
-      <c r="AS141" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AT141" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AU141" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="AV141" t="inlineStr">
         <is>
           <t>43329</t>
         </is>
